--- a/Code/Results/Cases/Case_5_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_36/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,25 +409,31 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.627786538139219</v>
+        <v>3.005321121204815</v>
       </c>
       <c r="C2">
-        <v>0.9346713322117068</v>
+        <v>0.7661856005688037</v>
       </c>
       <c r="D2">
-        <v>0.04806912741442204</v>
+        <v>0.007379500019380814</v>
       </c>
       <c r="E2">
-        <v>0.03895313701234393</v>
+        <v>1.448688257564797</v>
       </c>
       <c r="F2">
-        <v>2.516410488867677</v>
+        <v>1.475993064919933</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,39 +442,45 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.395859483617244</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.8495600464606099</v>
       </c>
       <c r="L2">
-        <v>0.1718892765390407</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7143082184218983</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.5822974399930914</v>
+      </c>
+      <c r="O2">
+        <v>1.125044725470161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.263490991024639</v>
+        <v>2.589293940189748</v>
       </c>
       <c r="C3">
-        <v>0.803851518543155</v>
+        <v>0.6613515347448526</v>
       </c>
       <c r="D3">
-        <v>0.04692388725313634</v>
+        <v>0.008606286098776561</v>
       </c>
       <c r="E3">
-        <v>0.03618038109972055</v>
+        <v>1.236618552591978</v>
       </c>
       <c r="F3">
-        <v>2.235324679651285</v>
+        <v>1.306351311164647</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -477,39 +489,45 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.266375001622919</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.7317945670231722</v>
       </c>
       <c r="L3">
-        <v>0.1492549410834343</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6156478379635715</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0.6250465024493153</v>
+      </c>
+      <c r="O3">
+        <v>1.000187433177445</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.04318339498883</v>
+        <v>2.337687135397516</v>
       </c>
       <c r="C4">
-        <v>0.7248872400972175</v>
+        <v>0.5979077554519847</v>
       </c>
       <c r="D4">
-        <v>0.04632894562487877</v>
+        <v>0.009410555297530099</v>
       </c>
       <c r="E4">
-        <v>0.03455235620514507</v>
+        <v>1.109994179133707</v>
       </c>
       <c r="F4">
-        <v>2.068312809781588</v>
+        <v>1.206151944550896</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -518,39 +536,45 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.190009801824246</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6605552536656347</v>
       </c>
       <c r="L4">
-        <v>0.1356892858660252</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5561814948262835</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0.6529114319382003</v>
+      </c>
+      <c r="O4">
+        <v>0.9267501629197312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.954119919350234</v>
+        <v>2.235966518757039</v>
       </c>
       <c r="C5">
-        <v>0.692994489994021</v>
+        <v>0.572244716011852</v>
       </c>
       <c r="D5">
-        <v>0.04611096429872319</v>
+        <v>0.009749784049176924</v>
       </c>
       <c r="E5">
-        <v>0.03390584105143013</v>
+        <v>1.059148406062747</v>
       </c>
       <c r="F5">
-        <v>2.001493131318909</v>
+        <v>1.166201670299245</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -559,39 +583,45 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.159593669454736</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6317492880218367</v>
       </c>
       <c r="L5">
-        <v>0.1302337964766416</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5321876700585904</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0.6646487937534289</v>
+      </c>
+      <c r="O5">
+        <v>0.8975428355433479</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.939370420151164</v>
+        <v>2.219120679771379</v>
       </c>
       <c r="C6">
-        <v>0.6877144499162284</v>
+        <v>0.567993772564904</v>
       </c>
       <c r="D6">
-        <v>0.04607617069934022</v>
+        <v>0.00980677027502308</v>
       </c>
       <c r="E6">
-        <v>0.03379945973062348</v>
+        <v>1.050747094446322</v>
       </c>
       <c r="F6">
-        <v>1.990468119496114</v>
+        <v>1.159618078139573</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -600,39 +630,45 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.154583204887089</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6269784354005736</v>
       </c>
       <c r="L6">
-        <v>0.1293320049785756</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5282168530957989</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0.6666201875805591</v>
+      </c>
+      <c r="O6">
+        <v>0.8927338777742762</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.04197953223769</v>
+        <v>2.336312202949102</v>
       </c>
       <c r="C7">
-        <v>0.724456036153498</v>
+        <v>0.5975609342015957</v>
       </c>
       <c r="D7">
-        <v>0.04632591024972754</v>
+        <v>0.009415085410721336</v>
       </c>
       <c r="E7">
-        <v>0.0345435708453099</v>
+        <v>1.109305582095388</v>
       </c>
       <c r="F7">
-        <v>2.067406844301644</v>
+        <v>1.205609734071757</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -641,39 +677,45 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.189596859547507</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6601659121183019</v>
       </c>
       <c r="L7">
-        <v>0.1356154307715798</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5558569877726356</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0.6530682092007467</v>
+      </c>
+      <c r="O7">
+        <v>0.9263534669966447</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.50139277390457</v>
+        <v>2.860981687569847</v>
       </c>
       <c r="C8">
-        <v>0.8892469455243202</v>
+        <v>0.7298203589029697</v>
       </c>
       <c r="D8">
-        <v>0.047650035103878</v>
+        <v>0.007791037542773438</v>
       </c>
       <c r="E8">
-        <v>0.03798049848111695</v>
+        <v>1.374727774968562</v>
       </c>
       <c r="F8">
-        <v>2.418231740626084</v>
+        <v>1.416605987270103</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -682,39 +724,45 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.350507472842779</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.8087045488749283</v>
       </c>
       <c r="L8">
-        <v>0.1640092141880984</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6800339075699071</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0.5966863056094098</v>
+      </c>
+      <c r="O8">
+        <v>1.08126605567125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.43588784880734</v>
+        <v>3.928131112765925</v>
       </c>
       <c r="C9">
-        <v>1.22605108737946</v>
+        <v>0.9986659276805199</v>
       </c>
       <c r="D9">
-        <v>0.05124631480601494</v>
+        <v>0.005082996996400801</v>
       </c>
       <c r="E9">
-        <v>0.04540208704247739</v>
+        <v>1.931397349657814</v>
       </c>
       <c r="F9">
-        <v>3.158704336608849</v>
+        <v>1.867628077658878</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -723,39 +771,45 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.695307917722587</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.110737213839968</v>
       </c>
       <c r="L9">
-        <v>0.2228730784419781</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.9344149914344797</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.5001870679334957</v>
+      </c>
+      <c r="O9">
+        <v>1.415345368124818</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.153875973655488</v>
+        <v>4.748116313418677</v>
       </c>
       <c r="C10">
-        <v>1.486412637730211</v>
+        <v>1.205453322799713</v>
       </c>
       <c r="D10">
-        <v>0.05472483952163998</v>
+        <v>0.003506058834484627</v>
       </c>
       <c r="E10">
-        <v>0.05141429836113787</v>
+        <v>2.375239548395925</v>
       </c>
       <c r="F10">
-        <v>3.747889624077402</v>
+        <v>2.231061355539978</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -764,39 +818,45 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.973384087958721</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.342846806502891</v>
       </c>
       <c r="L10">
-        <v>0.2689378649349123</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1.131211143180224</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0.4398406295308135</v>
+      </c>
+      <c r="O10">
+        <v>1.686822479138726</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.490238817849388</v>
+        <v>5.132347083703905</v>
       </c>
       <c r="C11">
-        <v>1.608888904803564</v>
+        <v>1.30248618118128</v>
       </c>
       <c r="D11">
-        <v>0.05655032237580571</v>
+        <v>0.002913693431743525</v>
       </c>
       <c r="E11">
-        <v>0.05430876363217507</v>
+        <v>2.588329969248861</v>
       </c>
       <c r="F11">
-        <v>4.029218073545792</v>
+        <v>2.405873914167472</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -805,39 +865,45 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.107095332904933</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.451640847452524</v>
       </c>
       <c r="L11">
-        <v>0.2907381776259115</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1.223758997126097</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0.4152108027782475</v>
+      </c>
+      <c r="O11">
+        <v>1.81801378321488</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.6193002633226</v>
+        <v>5.279797832434156</v>
       </c>
       <c r="C12">
-        <v>1.65597013080918</v>
+        <v>1.339752249226194</v>
       </c>
       <c r="D12">
-        <v>0.05728274800251398</v>
+        <v>0.002711155377487451</v>
       </c>
       <c r="E12">
-        <v>0.0554314759087795</v>
+        <v>2.671007759690738</v>
       </c>
       <c r="F12">
-        <v>4.138008305449858</v>
+        <v>2.47368735436288</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -846,39 +912,45 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.158946991670447</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.493398353066212</v>
       </c>
       <c r="L12">
-        <v>0.2991379167576724</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1.259325419618676</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0.4063437558948664</v>
+      </c>
+      <c r="O12">
+        <v>1.869004223979076</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.591424433870657</v>
+        <v>5.247948896084836</v>
       </c>
       <c r="C13">
-        <v>1.645796966482123</v>
+        <v>1.331701417143051</v>
       </c>
       <c r="D13">
-        <v>0.05712306632463537</v>
+        <v>0.002753737220567487</v>
       </c>
       <c r="E13">
-        <v>0.05518842974064242</v>
+        <v>2.653106479890752</v>
       </c>
       <c r="F13">
-        <v>4.114471924833595</v>
+        <v>2.459006179878159</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -887,39 +959,45 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.147722444128362</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.484378486005639</v>
       </c>
       <c r="L13">
-        <v>0.2973220553747922</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1.251640891280147</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0.40823202818558</v>
+      </c>
+      <c r="O13">
+        <v>1.857960564273881</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.500821142841744</v>
+        <v>5.144436702198448</v>
       </c>
       <c r="C14">
-        <v>1.61274746586048</v>
+        <v>1.305541015509618</v>
       </c>
       <c r="D14">
-        <v>0.05660971531509773</v>
+        <v>0.002896569217788247</v>
       </c>
       <c r="E14">
-        <v>0.05440057266973852</v>
+        <v>2.595089697723722</v>
       </c>
       <c r="F14">
-        <v>4.038120907757843</v>
+        <v>2.411418988438783</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -928,39 +1006,45 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.111335649018045</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.45506442245761</v>
       </c>
       <c r="L14">
-        <v>0.291426190519303</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1.226674096086569</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0.4144717499910655</v>
+      </c>
+      <c r="O14">
+        <v>1.822181221203095</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.445553138701996</v>
+        <v>5.081297580104035</v>
       </c>
       <c r="C15">
-        <v>1.592599079039928</v>
+        <v>1.289588101759477</v>
       </c>
       <c r="D15">
-        <v>0.05630083482193271</v>
+        <v>0.002987021353481722</v>
       </c>
       <c r="E15">
-        <v>0.05392157652887164</v>
+        <v>2.559823773347759</v>
       </c>
       <c r="F15">
-        <v>3.991658800057337</v>
+        <v>2.3824890807374</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -969,39 +1053,45 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.08921217455007</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.437184798761436</v>
       </c>
       <c r="L15">
-        <v>0.2878343533565229</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1.211451778498592</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0.4183553872013164</v>
+      </c>
+      <c r="O15">
+        <v>1.800442765398273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.132113487250308</v>
+        <v>4.723259240968389</v>
       </c>
       <c r="C16">
-        <v>1.478499713033329</v>
+        <v>1.199179436600787</v>
       </c>
       <c r="D16">
-        <v>0.0546109377472348</v>
+        <v>0.003547593130509341</v>
       </c>
       <c r="E16">
-        <v>0.05122865196686277</v>
+        <v>2.361569138438185</v>
       </c>
       <c r="F16">
-        <v>3.729800087909098</v>
+        <v>2.219848380045931</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1010,39 +1100,45 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.964805721328375</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.335809422051369</v>
       </c>
       <c r="L16">
-        <v>0.2675320485179569</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1.125230803749979</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0.4415114414812606</v>
+      </c>
+      <c r="O16">
+        <v>1.678420372846659</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.942514996164391</v>
+        <v>4.506710205395279</v>
       </c>
       <c r="C17">
-        <v>1.409617927737997</v>
+        <v>1.144538749405967</v>
       </c>
       <c r="D17">
-        <v>0.0536405920891454</v>
+        <v>0.003925956521891649</v>
       </c>
       <c r="E17">
-        <v>0.04961994687343108</v>
+        <v>2.243055909990318</v>
       </c>
       <c r="F17">
-        <v>3.572794527883161</v>
+        <v>2.122669230719808</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1051,39 +1147,45 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.890453996711116</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.274505108615969</v>
       </c>
       <c r="L17">
-        <v>0.2553089326369005</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1.073168523278923</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0.4564753682778075</v>
+      </c>
+      <c r="O17">
+        <v>1.60566951085967</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.834360778774055</v>
+        <v>4.383189328943786</v>
       </c>
       <c r="C18">
-        <v>1.370370552115219</v>
+        <v>1.113383269483393</v>
       </c>
       <c r="D18">
-        <v>0.0531049281883611</v>
+        <v>0.004155075467138225</v>
       </c>
       <c r="E18">
-        <v>0.04870942162601821</v>
+        <v>2.175916449236794</v>
       </c>
       <c r="F18">
-        <v>3.48371797158336</v>
+        <v>2.067649814474677</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1092,39 +1194,45 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.848355444166614</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.239539491040375</v>
       </c>
       <c r="L18">
-        <v>0.248356514540248</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>1.043502494789081</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0.4653441454753633</v>
+      </c>
+      <c r="O18">
+        <v>1.564535347517889</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.797887797277838</v>
+        <v>4.341535192267315</v>
       </c>
       <c r="C19">
-        <v>1.357142490096976</v>
+        <v>1.102878698016099</v>
       </c>
       <c r="D19">
-        <v>0.05292724568813867</v>
+        <v>0.004234522444645172</v>
       </c>
       <c r="E19">
-        <v>0.04840356411945734</v>
+        <v>2.153350157455492</v>
       </c>
       <c r="F19">
-        <v>3.453759606293545</v>
+        <v>2.049164541898406</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1133,39 +1241,45 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.834211017372098</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.227748663716</v>
       </c>
       <c r="L19">
-        <v>0.2460152993942302</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>1.033503575186131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0.4683904455165262</v>
+      </c>
+      <c r="O19">
+        <v>1.550724319445379</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.962603223113888</v>
+        <v>4.529653099449149</v>
       </c>
       <c r="C20">
-        <v>1.416911231620759</v>
+        <v>1.150326512377205</v>
       </c>
       <c r="D20">
-        <v>0.05374152161321888</v>
+        <v>0.003884464510524488</v>
       </c>
       <c r="E20">
-        <v>0.04978964361450267</v>
+        <v>2.255563147271062</v>
       </c>
       <c r="F20">
-        <v>3.589378528449686</v>
+        <v>2.132921819200476</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1174,39 +1288,45 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.898298652686208</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.280999864962098</v>
       </c>
       <c r="L20">
-        <v>0.2566018773135283</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>1.078681206625774</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0.4548549624339913</v>
+      </c>
+      <c r="O20">
+        <v>1.613339087494978</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.527385198183708</v>
+        <v>5.174784811571328</v>
       </c>
       <c r="C21">
-        <v>1.622434780914887</v>
+        <v>1.313209949391251</v>
       </c>
       <c r="D21">
-        <v>0.05675932725292654</v>
+        <v>0.002853990402515549</v>
       </c>
       <c r="E21">
-        <v>0.0546312300026166</v>
+        <v>2.612073363900507</v>
       </c>
       <c r="F21">
-        <v>4.060482778258717</v>
+        <v>2.42535042767588</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1215,39 +1335,45 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.121988689488461</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.463658616451539</v>
       </c>
       <c r="L21">
-        <v>0.2931538286139954</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1.23399257078367</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0.4126260397974022</v>
+      </c>
+      <c r="O21">
+        <v>1.832653089750821</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.906510488124127</v>
+        <v>5.607988565117296</v>
       </c>
       <c r="C22">
-        <v>1.760920490576268</v>
+        <v>1.422762993635331</v>
       </c>
       <c r="D22">
-        <v>0.05897522059910898</v>
+        <v>0.002309879066208609</v>
       </c>
       <c r="E22">
-        <v>0.05795292052986056</v>
+        <v>2.856879878114498</v>
       </c>
       <c r="F22">
-        <v>4.381734820128145</v>
+        <v>2.626037168394589</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1256,39 +1382,45 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.275388910113648</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.586357152179673</v>
       </c>
       <c r="L22">
-        <v>0.3178978892591857</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1.338581856531164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0.3877387663510987</v>
+      </c>
+      <c r="O22">
+        <v>1.983752093380872</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.703141359649635</v>
+        <v>5.375593042509252</v>
       </c>
       <c r="C23">
-        <v>1.686581410167491</v>
+        <v>1.363972572419186</v>
       </c>
       <c r="D23">
-        <v>0.05776792714858914</v>
+        <v>0.002586954085120219</v>
       </c>
       <c r="E23">
-        <v>0.05616428856205857</v>
+        <v>2.724995594307984</v>
       </c>
       <c r="F23">
-        <v>4.208925817940354</v>
+        <v>2.517956409087105</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1297,39 +1429,45 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.192789445778487</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.520529566290705</v>
       </c>
       <c r="L23">
-        <v>0.3046047176311006</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1.282446370392563</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0.4007531158580235</v>
+      </c>
+      <c r="O23">
+        <v>1.90231992204339</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.953518713918243</v>
+        <v>4.519277601604131</v>
       </c>
       <c r="C24">
-        <v>1.413612836218249</v>
+        <v>1.147709067537932</v>
       </c>
       <c r="D24">
-        <v>0.0536958226792521</v>
+        <v>0.003903187216475423</v>
       </c>
       <c r="E24">
-        <v>0.04971287932197654</v>
+        <v>2.249905552183122</v>
       </c>
       <c r="F24">
-        <v>3.581877226609606</v>
+        <v>2.12828399429074</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1338,39 +1476,45 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.894750080989965</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.278062723642577</v>
       </c>
       <c r="L24">
-        <v>0.2560171056764418</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1.076188102515587</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0.4555867239255704</v>
+      </c>
+      <c r="O24">
+        <v>1.609869533702792</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.178444619079073</v>
+        <v>3.634143966640352</v>
       </c>
       <c r="C25">
-        <v>1.13303905795874</v>
+        <v>0.9245915418732693</v>
       </c>
       <c r="D25">
-        <v>0.05014494255493673</v>
+        <v>0.005753351971579335</v>
       </c>
       <c r="E25">
-        <v>0.0433075881260212</v>
+        <v>1.775738149189962</v>
       </c>
       <c r="F25">
-        <v>2.951511403967487</v>
+        <v>1.740738263953418</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1379,19 +1523,25 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.598238423640026</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.027532351652738</v>
       </c>
       <c r="L25">
-        <v>0.2065244033938356</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8641222541105051</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.5245995278534963</v>
+      </c>
+      <c r="O25">
+        <v>1.321008049182353</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_36/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.005321121204815</v>
+        <v>1.064180168887276</v>
       </c>
       <c r="C2">
-        <v>0.7661856005688037</v>
+        <v>0.2184824331658888</v>
       </c>
       <c r="D2">
-        <v>0.007379500019380814</v>
+        <v>0.05871461369907394</v>
       </c>
       <c r="E2">
-        <v>1.448688257564797</v>
+        <v>1.387749502022757</v>
       </c>
       <c r="F2">
-        <v>1.475993064919933</v>
+        <v>0.4557210187833078</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.2320427430941194</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8495600464606099</v>
+        <v>1.228325938342778</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.5822974399930914</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.125044725470161</v>
+        <v>1.280240133294967</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.589293940189748</v>
+        <v>0.9276680820629792</v>
       </c>
       <c r="C3">
-        <v>0.6613515347448526</v>
+        <v>0.1925483666823311</v>
       </c>
       <c r="D3">
-        <v>0.008606286098776561</v>
+        <v>0.05291954097270235</v>
       </c>
       <c r="E3">
-        <v>1.236618552591978</v>
+        <v>1.192570688491486</v>
       </c>
       <c r="F3">
-        <v>1.306351311164647</v>
+        <v>0.428645065662927</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.2352603042514723</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7317945670231722</v>
+        <v>1.072825014835473</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6250465024493153</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.000187433177445</v>
+        <v>1.238999812584069</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.337687135397516</v>
+        <v>0.8439631575186013</v>
       </c>
       <c r="C4">
-        <v>0.5979077554519847</v>
+        <v>0.1766566667105707</v>
       </c>
       <c r="D4">
-        <v>0.009410555297530099</v>
+        <v>0.04934774598965674</v>
       </c>
       <c r="E4">
-        <v>1.109994179133707</v>
+        <v>1.074793791895459</v>
       </c>
       <c r="F4">
-        <v>1.206151944550896</v>
+        <v>0.413169348332552</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.2379713748037879</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6605552536656347</v>
+        <v>0.9774826233397391</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6529114319382003</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.9267501629197312</v>
+        <v>1.217409331296096</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.235966518757039</v>
+        <v>0.8098673664681257</v>
       </c>
       <c r="C5">
-        <v>0.572244716011852</v>
+        <v>0.1701850451217126</v>
       </c>
       <c r="D5">
-        <v>0.009749784049176924</v>
+        <v>0.04788858075821878</v>
       </c>
       <c r="E5">
-        <v>1.059148406062747</v>
+        <v>1.027239719044985</v>
       </c>
       <c r="F5">
-        <v>1.166201670299245</v>
+        <v>0.407133285539814</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2392517946594133</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6317492880218367</v>
+        <v>0.9386468044155549</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6646487937534289</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.8975428355433479</v>
+        <v>1.209492735018529</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.219120679771379</v>
+        <v>0.8042062791835463</v>
       </c>
       <c r="C6">
-        <v>0.567993772564904</v>
+        <v>0.1691105999134237</v>
       </c>
       <c r="D6">
-        <v>0.00980677027502308</v>
+        <v>0.04764606248402004</v>
       </c>
       <c r="E6">
-        <v>1.050747094446322</v>
+        <v>1.019367872120768</v>
       </c>
       <c r="F6">
-        <v>1.159618078139573</v>
+        <v>0.4061468137404773</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.2394747535847301</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6269784354005736</v>
+        <v>0.9321986928390515</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6666201875805591</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.8927338777742762</v>
+        <v>1.208229853785596</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.336312202949102</v>
+        <v>0.8435032883038787</v>
       </c>
       <c r="C7">
-        <v>0.5975609342015957</v>
+        <v>0.176569375074962</v>
       </c>
       <c r="D7">
-        <v>0.009415085410721336</v>
+        <v>0.04932808213802531</v>
       </c>
       <c r="E7">
-        <v>1.109305582095388</v>
+        <v>1.074150774143462</v>
       </c>
       <c r="F7">
-        <v>1.205609734071757</v>
+        <v>0.4130868726442927</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.2379879437494417</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6601659121183019</v>
+        <v>0.9769588229763997</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6530682092007467</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.9263534669966447</v>
+        <v>1.217299067592464</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.860981687569847</v>
+        <v>1.017078338857687</v>
       </c>
       <c r="C8">
-        <v>0.7298203589029697</v>
+        <v>0.2095314506261445</v>
       </c>
       <c r="D8">
-        <v>0.007791037542773438</v>
+        <v>0.05671915988899201</v>
       </c>
       <c r="E8">
-        <v>1.374727774968562</v>
+        <v>1.319974573271793</v>
       </c>
       <c r="F8">
-        <v>1.416605987270103</v>
+        <v>0.4461352522651438</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.2329937385765923</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8087045488749283</v>
+        <v>1.174670275025136</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5966863056094098</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.08126605567125</v>
+        <v>1.265210916659726</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.928131112765925</v>
+        <v>1.359063943063745</v>
       </c>
       <c r="C9">
-        <v>0.9986659276805199</v>
+        <v>0.2746056809297812</v>
       </c>
       <c r="D9">
-        <v>0.005082996996400801</v>
+        <v>0.07111639128879688</v>
       </c>
       <c r="E9">
-        <v>1.931397349657814</v>
+        <v>1.822294790034533</v>
       </c>
       <c r="F9">
-        <v>1.867628077658878</v>
+        <v>0.5209569580803688</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.2294844634938542</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.110737213839968</v>
+        <v>1.564316285662926</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5001870679334957</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.415345368124818</v>
+        <v>1.391512250121906</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.748116313418677</v>
+        <v>1.612381127515334</v>
       </c>
       <c r="C10">
-        <v>1.205453322799713</v>
+        <v>0.3229641541439037</v>
       </c>
       <c r="D10">
-        <v>0.003506058834484627</v>
+        <v>0.08165333609038328</v>
       </c>
       <c r="E10">
-        <v>2.375239548395925</v>
+        <v>2.209748141276293</v>
       </c>
       <c r="F10">
-        <v>2.231061355539978</v>
+        <v>0.5833830622761269</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.2314097837064537</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.342846806502891</v>
+        <v>1.853092468277197</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.4398406295308135</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1.686822479138726</v>
+        <v>1.508153758027277</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.132347083703905</v>
+        <v>1.72833626127192</v>
       </c>
       <c r="C11">
-        <v>1.30248618118128</v>
+        <v>0.3451536694254855</v>
       </c>
       <c r="D11">
-        <v>0.002913693431743525</v>
+        <v>0.08644258834745955</v>
       </c>
       <c r="E11">
-        <v>2.588329969248861</v>
+        <v>2.391552916646305</v>
       </c>
       <c r="F11">
-        <v>2.405873914167472</v>
+        <v>0.6137311829266281</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.233427923990785</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.451640847452524</v>
+        <v>1.985335942249833</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.4152108027782475</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>1.81801378321488</v>
+        <v>1.567408790004947</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.279797832434156</v>
+        <v>1.772373142284039</v>
       </c>
       <c r="C12">
-        <v>1.339752249226194</v>
+        <v>0.3535902859391911</v>
       </c>
       <c r="D12">
-        <v>0.002711155377487451</v>
+        <v>0.08825596746517306</v>
       </c>
       <c r="E12">
-        <v>2.671007759690738</v>
+        <v>2.461343519011109</v>
       </c>
       <c r="F12">
-        <v>2.47368735436288</v>
+        <v>0.6255340081426937</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.2343715730389775</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.493398353066212</v>
+        <v>2.035569169113927</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4063437558948664</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1.869004223979076</v>
+        <v>1.590831486664314</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.247948896084836</v>
+        <v>1.762882953530578</v>
       </c>
       <c r="C13">
-        <v>1.331701417143051</v>
+        <v>0.3517716900867924</v>
       </c>
       <c r="D13">
-        <v>0.002753737220567487</v>
+        <v>0.08786542663542463</v>
       </c>
       <c r="E13">
-        <v>2.653106479890752</v>
+        <v>2.446268290550989</v>
       </c>
       <c r="F13">
-        <v>2.459006179878159</v>
+        <v>0.6229777305752151</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.2341601047941992</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.484378486005639</v>
+        <v>2.024743131494603</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.40823202818558</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>1.857960564273881</v>
+        <v>1.585741637845842</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.144436702198448</v>
+        <v>1.731956509098097</v>
       </c>
       <c r="C14">
-        <v>1.305541015509618</v>
+        <v>0.3458470354102587</v>
       </c>
       <c r="D14">
-        <v>0.002896569217788247</v>
+        <v>0.08659177799589912</v>
       </c>
       <c r="E14">
-        <v>2.595089697723722</v>
+        <v>2.397274782398782</v>
       </c>
       <c r="F14">
-        <v>2.411418988438783</v>
+        <v>0.614695799338854</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.2335018707620122</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.45506442245761</v>
+        <v>1.989465365545698</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.4144717499910655</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>1.822181221203095</v>
+        <v>1.569315499460117</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.081297580104035</v>
+        <v>1.713030474429161</v>
       </c>
       <c r="C15">
-        <v>1.289588101759477</v>
+        <v>0.3422226357402849</v>
       </c>
       <c r="D15">
-        <v>0.002987021353481722</v>
+        <v>0.0858116162988054</v>
       </c>
       <c r="E15">
-        <v>2.559823773347759</v>
+        <v>2.367392599407964</v>
       </c>
       <c r="F15">
-        <v>2.3824890807374</v>
+        <v>0.6096642783531223</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.2331225236733125</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.437184798761436</v>
+        <v>1.967877884027615</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.4183553872013164</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>1.800442765398273</v>
+        <v>1.559385099241553</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.723259240968389</v>
+        <v>1.604819644442671</v>
       </c>
       <c r="C16">
-        <v>1.199179436600787</v>
+        <v>0.321518397237611</v>
       </c>
       <c r="D16">
-        <v>0.003547593130509341</v>
+        <v>0.08134029693110989</v>
       </c>
       <c r="E16">
-        <v>2.361569138438185</v>
+        <v>2.19799060637169</v>
       </c>
       <c r="F16">
-        <v>2.219848380045931</v>
+        <v>0.5814415035212832</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.2313021440214023</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.335809422051369</v>
+        <v>1.844470145479448</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.4415114414812606</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1.678420372846659</v>
+        <v>1.504413727676564</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.506710205395279</v>
+        <v>1.538636319530951</v>
       </c>
       <c r="C17">
-        <v>1.144538749405967</v>
+        <v>0.3088703204765011</v>
       </c>
       <c r="D17">
-        <v>0.003925956521891649</v>
+        <v>0.07859650496868653</v>
       </c>
       <c r="E17">
-        <v>2.243055909990318</v>
+        <v>2.095588467760891</v>
       </c>
       <c r="F17">
-        <v>2.122669230719808</v>
+        <v>0.5646478676890681</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.2304883277570546</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.274505108615969</v>
+        <v>1.769008237626736</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.4564753682778075</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1.60566951085967</v>
+        <v>1.472340762786416</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.383189328943786</v>
+        <v>1.500635633390658</v>
       </c>
       <c r="C18">
-        <v>1.113383269483393</v>
+        <v>0.3016130332852072</v>
       </c>
       <c r="D18">
-        <v>0.004155075467138225</v>
+        <v>0.07701794190192146</v>
       </c>
       <c r="E18">
-        <v>2.175916449236794</v>
+        <v>2.037202078336406</v>
       </c>
       <c r="F18">
-        <v>2.067649814474677</v>
+        <v>0.5551702058464656</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.2301267750926748</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.239539491040375</v>
+        <v>1.725685244591148</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.4653441454753633</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1.564535347517889</v>
+        <v>1.4544701834443</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.341535192267315</v>
+        <v>1.487779941313704</v>
       </c>
       <c r="C19">
-        <v>1.102878698016099</v>
+        <v>0.2991586694085129</v>
       </c>
       <c r="D19">
-        <v>0.004234522444645172</v>
+        <v>0.07648338686356482</v>
       </c>
       <c r="E19">
-        <v>2.153350157455492</v>
+        <v>2.017517306525903</v>
       </c>
       <c r="F19">
-        <v>2.049164541898406</v>
+        <v>0.5519915453465813</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.2300222171113688</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.227748663716</v>
+        <v>1.711029838493261</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.4683904455165262</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1.550724319445379</v>
+        <v>1.448515899612829</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.529653099449149</v>
+        <v>1.545674630521631</v>
       </c>
       <c r="C20">
-        <v>1.150326512377205</v>
+        <v>0.3102148686696751</v>
       </c>
       <c r="D20">
-        <v>0.003884464510524488</v>
+        <v>0.07888862576498923</v>
       </c>
       <c r="E20">
-        <v>2.255563147271062</v>
+        <v>2.106435290189708</v>
       </c>
       <c r="F20">
-        <v>2.132921819200476</v>
+        <v>0.5664165746378487</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.2305638287255611</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.280999864962098</v>
+        <v>1.777032731470143</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.4548549624339913</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1.613339087494978</v>
+        <v>1.475694625033327</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.174784811571328</v>
+        <v>1.741036703489925</v>
       </c>
       <c r="C21">
-        <v>1.313209949391251</v>
+        <v>0.3475862742508582</v>
       </c>
       <c r="D21">
-        <v>0.002853990402515549</v>
+        <v>0.08696588190392163</v>
       </c>
       <c r="E21">
-        <v>2.612073363900507</v>
+        <v>2.411638450192768</v>
       </c>
       <c r="F21">
-        <v>2.42535042767588</v>
+        <v>0.6171197173752034</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.2336902126840101</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.463658616451539</v>
+        <v>1.999822832542975</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.4126260397974022</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1.832653089750821</v>
+        <v>1.574112757200794</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.607988565117296</v>
+        <v>1.869471162011394</v>
       </c>
       <c r="C22">
-        <v>1.422762993635331</v>
+        <v>0.3722119392087109</v>
       </c>
       <c r="D22">
-        <v>0.002309879066208609</v>
+        <v>0.09224383191646268</v>
       </c>
       <c r="E22">
-        <v>2.856879878114498</v>
+        <v>2.616697217271991</v>
       </c>
       <c r="F22">
-        <v>2.626037168394589</v>
+        <v>0.6520839978804531</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.2367873902999058</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.586357152179673</v>
+        <v>2.146351149329803</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.3877387663510987</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>1.983752093380872</v>
+        <v>1.644220839321889</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.375593042509252</v>
+        <v>1.800845840844147</v>
       </c>
       <c r="C23">
-        <v>1.363972572419186</v>
+        <v>0.359048014653581</v>
       </c>
       <c r="D23">
-        <v>0.002586954085120219</v>
+        <v>0.08942684844450355</v>
       </c>
       <c r="E23">
-        <v>2.724995594307984</v>
+        <v>2.506688355654276</v>
       </c>
       <c r="F23">
-        <v>2.517956409087105</v>
+        <v>0.6332450030422763</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.2350325477525956</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.520529566290705</v>
+        <v>2.068051396893679</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.4007531158580235</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>1.90231992204339</v>
+        <v>1.60624013986893</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.519277601604131</v>
+        <v>1.542492459293385</v>
       </c>
       <c r="C24">
-        <v>1.147709067537932</v>
+        <v>0.3096069544923523</v>
       </c>
       <c r="D24">
-        <v>0.003903187216475423</v>
+        <v>0.0787565614712662</v>
       </c>
       <c r="E24">
-        <v>2.249905552183122</v>
+        <v>2.101529938965825</v>
       </c>
       <c r="F24">
-        <v>2.12828399429074</v>
+        <v>0.565616392465607</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.2305293647000894</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.278062723642577</v>
+        <v>1.773404669781911</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.4555867239255704</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1.609869533702792</v>
+        <v>1.474176579812848</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.634143966640352</v>
+        <v>1.266269815838399</v>
       </c>
       <c r="C25">
-        <v>0.9245915418732693</v>
+        <v>0.2569271617443434</v>
       </c>
       <c r="D25">
-        <v>0.005753351971579335</v>
+        <v>0.06723012614450141</v>
       </c>
       <c r="E25">
-        <v>1.775738149189962</v>
+        <v>1.683650221058599</v>
       </c>
       <c r="F25">
-        <v>1.740738263953418</v>
+        <v>0.4995108681944345</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.2296948848859159</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.027532351652738</v>
+        <v>1.458569942910714</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5245995278534963</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.321008049182353</v>
+        <v>1.35347598297588</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_36/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.064180168887276</v>
+        <v>0.3429493964269454</v>
       </c>
       <c r="C2">
-        <v>0.2184824331658888</v>
+        <v>0.06965172002794873</v>
       </c>
       <c r="D2">
-        <v>0.05871461369907394</v>
+        <v>0.02613535110029375</v>
       </c>
       <c r="E2">
-        <v>1.387749502022757</v>
+        <v>0.4172994359769717</v>
       </c>
       <c r="F2">
-        <v>0.4557210187833078</v>
+        <v>0.6289244698071883</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>0.2320427430941194</v>
+        <v>0.4725067101974112</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.228325938342778</v>
+        <v>0.3790598273342312</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.280240133294967</v>
+        <v>2.123885881344393</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9276680820629792</v>
+        <v>0.3009604902053695</v>
       </c>
       <c r="C3">
-        <v>0.1925483666823311</v>
+        <v>0.061536622470868</v>
       </c>
       <c r="D3">
-        <v>0.05291954097270235</v>
+        <v>0.02409310344494742</v>
       </c>
       <c r="E3">
-        <v>1.192570688491486</v>
+        <v>0.3641208024745595</v>
       </c>
       <c r="F3">
-        <v>0.428645065662927</v>
+        <v>0.6278367374468701</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>0.2352603042514723</v>
+        <v>0.4777763309126506</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.072825014835473</v>
+        <v>0.3309631340923715</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.238999812584069</v>
+        <v>2.133867296146363</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8439631575186013</v>
+        <v>0.2751380727278843</v>
       </c>
       <c r="C4">
-        <v>0.1766566667105707</v>
+        <v>0.05652751646390186</v>
       </c>
       <c r="D4">
-        <v>0.04934774598965674</v>
+        <v>0.02282952962679019</v>
       </c>
       <c r="E4">
-        <v>1.074793791895459</v>
+        <v>0.3315522843217025</v>
       </c>
       <c r="F4">
-        <v>0.413169348332552</v>
+        <v>0.6276358551096948</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>0.2379713748037879</v>
+        <v>0.4813320661461979</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9774826233397391</v>
+        <v>0.301355535434908</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.217409331296096</v>
+        <v>2.141531551795708</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8098673664681257</v>
+        <v>0.2646054256215109</v>
       </c>
       <c r="C5">
-        <v>0.1701850451217126</v>
+        <v>0.05447967130373854</v>
       </c>
       <c r="D5">
-        <v>0.04788858075821878</v>
+        <v>0.02231222978210212</v>
       </c>
       <c r="E5">
-        <v>1.027239719044985</v>
+        <v>0.3182997360578668</v>
       </c>
       <c r="F5">
-        <v>0.407133285539814</v>
+        <v>0.6276712106583346</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>0.2392517946594133</v>
+        <v>0.4828614232459323</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9386468044155549</v>
+        <v>0.2892715992567787</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.209492735018529</v>
+        <v>2.145040146666858</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8042062791835463</v>
+        <v>0.2628559110281117</v>
       </c>
       <c r="C6">
-        <v>0.1691105999134237</v>
+        <v>0.05413923129175657</v>
       </c>
       <c r="D6">
-        <v>0.04764606248402004</v>
+        <v>0.02222618969180701</v>
       </c>
       <c r="E6">
-        <v>1.019367872120768</v>
+        <v>0.3161002854831452</v>
       </c>
       <c r="F6">
-        <v>0.4061468137404773</v>
+        <v>0.6276841548369632</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>0.2394747535847301</v>
+        <v>0.4831202215763746</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9321986928390515</v>
+        <v>0.287263962931803</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.208229853785596</v>
+        <v>2.145645996966252</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8435032883038787</v>
+        <v>0.2749960647586533</v>
       </c>
       <c r="C7">
-        <v>0.176569375074962</v>
+        <v>0.05649992514496205</v>
       </c>
       <c r="D7">
-        <v>0.04932808213802531</v>
+        <v>0.02282256274050098</v>
       </c>
       <c r="E7">
-        <v>1.074150774143462</v>
+        <v>0.3313734793942444</v>
       </c>
       <c r="F7">
-        <v>0.4130868726442927</v>
+        <v>0.62763585760392</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>0.2379879437494417</v>
+        <v>0.4813523663824455</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9769588229763997</v>
+        <v>0.3011926418602684</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.217299067592464</v>
+        <v>2.141577310738967</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.017078338857687</v>
+        <v>0.3284804428742234</v>
       </c>
       <c r="C8">
-        <v>0.2095314506261445</v>
+        <v>0.06685913912150454</v>
       </c>
       <c r="D8">
-        <v>0.05671915988899201</v>
+        <v>0.02543320350022071</v>
       </c>
       <c r="E8">
-        <v>1.319974573271793</v>
+        <v>0.3989451711657068</v>
       </c>
       <c r="F8">
-        <v>0.4461352522651438</v>
+        <v>0.6284523662408716</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>0.2329937385765923</v>
+        <v>0.4742571391747532</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.174670275025136</v>
+        <v>0.3624921648032284</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.265210916659726</v>
+        <v>2.127008269994576</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.359063943063745</v>
+        <v>0.4330196250668905</v>
       </c>
       <c r="C9">
-        <v>0.2746056809297812</v>
+        <v>0.08696300939867285</v>
       </c>
       <c r="D9">
-        <v>0.07111639128879688</v>
+        <v>0.03047489210479881</v>
       </c>
       <c r="E9">
-        <v>1.822294790034533</v>
+        <v>0.5321920092805641</v>
       </c>
       <c r="F9">
-        <v>0.5209569580803688</v>
+        <v>0.6337695595010544</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>0.2294844634938542</v>
+        <v>0.4628902603821636</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.564316285662926</v>
+        <v>0.482080110783528</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.391512250121906</v>
+        <v>2.110660902985103</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.612381127515334</v>
+        <v>0.5095990029419966</v>
       </c>
       <c r="C10">
-        <v>0.3229641541439037</v>
+        <v>0.1016050693617387</v>
       </c>
       <c r="D10">
-        <v>0.08165333609038328</v>
+        <v>0.03413008150781138</v>
       </c>
       <c r="E10">
-        <v>2.209748141276293</v>
+        <v>0.6306550029007525</v>
       </c>
       <c r="F10">
-        <v>0.5833830622761269</v>
+        <v>0.6399578769489622</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>0.2314097837064537</v>
+        <v>0.4561006330277806</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.853092468277197</v>
+        <v>0.5695492469239412</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.508153758027277</v>
+        <v>2.106157102289842</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.72833626127192</v>
+        <v>0.5443850744516681</v>
       </c>
       <c r="C11">
-        <v>0.3451536694254855</v>
+        <v>0.1082383929685591</v>
       </c>
       <c r="D11">
-        <v>0.08644258834745955</v>
+        <v>0.03578199605599508</v>
       </c>
       <c r="E11">
-        <v>2.391552916646305</v>
+        <v>0.6755970522736021</v>
       </c>
       <c r="F11">
-        <v>0.6137311829266281</v>
+        <v>0.643272201252536</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>0.233427923990785</v>
+        <v>0.4533528994753127</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.985335942249833</v>
+        <v>0.6092537054502145</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.567408790004947</v>
+        <v>2.105750366634226</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.772373142284039</v>
+        <v>0.5575500160009597</v>
       </c>
       <c r="C12">
-        <v>0.3535902859391911</v>
+        <v>0.1107462947899194</v>
       </c>
       <c r="D12">
-        <v>0.08825596746517306</v>
+        <v>0.03640594065366543</v>
       </c>
       <c r="E12">
-        <v>2.461343519011109</v>
+        <v>0.6926390146231967</v>
       </c>
       <c r="F12">
-        <v>0.6255340081426937</v>
+        <v>0.6445993015316844</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>0.2343715730389775</v>
+        <v>0.4523615882685768</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.035569169113927</v>
+        <v>0.6242760389982038</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.590831486664314</v>
+        <v>2.105833419773376</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.762882953530578</v>
+        <v>0.5547150655618225</v>
       </c>
       <c r="C13">
-        <v>0.3517716900867924</v>
+        <v>0.1102063516832743</v>
       </c>
       <c r="D13">
-        <v>0.08786542663542463</v>
+        <v>0.03627163478749651</v>
       </c>
       <c r="E13">
-        <v>2.446268290550989</v>
+        <v>0.6889676557750732</v>
       </c>
       <c r="F13">
-        <v>0.6229777305752151</v>
+        <v>0.6443102788797646</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>0.2341601047941992</v>
+        <v>0.4525728940902773</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.024743131494603</v>
+        <v>0.621041292549279</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.585741637845842</v>
+        <v>2.105804973691676</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.731956509098097</v>
+        <v>0.5454683214053091</v>
       </c>
       <c r="C14">
-        <v>0.3458470354102587</v>
+        <v>0.1084447998897531</v>
       </c>
       <c r="D14">
-        <v>0.08659177799589912</v>
+        <v>0.03583336063724119</v>
       </c>
       <c r="E14">
-        <v>2.397274782398782</v>
+        <v>0.6769986262960117</v>
       </c>
       <c r="F14">
-        <v>0.614695799338854</v>
+        <v>0.6433799374226794</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>0.2335018707620122</v>
+        <v>0.4532703567462519</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.989465365545698</v>
+        <v>0.6104898632670483</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.569315499460117</v>
+        <v>2.105752442689806</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.713030474429161</v>
+        <v>0.5398033927484391</v>
       </c>
       <c r="C15">
-        <v>0.3422226357402849</v>
+        <v>0.1073652769510147</v>
       </c>
       <c r="D15">
-        <v>0.0858116162988054</v>
+        <v>0.03556469558551356</v>
       </c>
       <c r="E15">
-        <v>2.367392599407964</v>
+        <v>0.6696703463099425</v>
       </c>
       <c r="F15">
-        <v>0.6096642783531223</v>
+        <v>0.6428194652369967</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>0.2331225236733125</v>
+        <v>0.4537039847019884</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.967877884027615</v>
+        <v>0.6040251138252017</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.559385099241553</v>
+        <v>2.105751168284797</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.604819644442671</v>
+        <v>0.5073245918154896</v>
       </c>
       <c r="C16">
-        <v>0.321518397237611</v>
+        <v>0.1011710099069205</v>
       </c>
       <c r="D16">
-        <v>0.08134029693110989</v>
+        <v>0.03402190330881183</v>
       </c>
       <c r="E16">
-        <v>2.19799060637169</v>
+        <v>0.6277211131709919</v>
       </c>
       <c r="F16">
-        <v>0.5814415035212832</v>
+        <v>0.6397513451047416</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>0.2313021440214023</v>
+        <v>0.4562870786100106</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.844470145479448</v>
+        <v>0.5669526948046268</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.504413727676564</v>
+        <v>2.106216806973435</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.538636319530951</v>
+        <v>0.4873866239897495</v>
       </c>
       <c r="C17">
-        <v>0.3088703204765011</v>
+        <v>0.097363967834184</v>
       </c>
       <c r="D17">
-        <v>0.07859650496868653</v>
+        <v>0.03307264324293868</v>
       </c>
       <c r="E17">
-        <v>2.095588467760891</v>
+        <v>0.602026435657379</v>
       </c>
       <c r="F17">
-        <v>0.5646478676890681</v>
+        <v>0.6379971943104934</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>0.2304883277570546</v>
+        <v>0.4579591603172055</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.769008237626736</v>
+        <v>0.5441876184393379</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.472340762786416</v>
+        <v>2.106923707552085</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.500635633390658</v>
+        <v>0.4759141336213588</v>
       </c>
       <c r="C18">
-        <v>0.3016130332852072</v>
+        <v>0.09517167971577578</v>
       </c>
       <c r="D18">
-        <v>0.07701794190192146</v>
+        <v>0.03252563509625617</v>
       </c>
       <c r="E18">
-        <v>2.037202078336406</v>
+        <v>0.5872616221731448</v>
       </c>
       <c r="F18">
-        <v>0.5551702058464656</v>
+        <v>0.6370352279284219</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>0.2301267750926748</v>
+        <v>0.4589529743305754</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.725685244591148</v>
+        <v>0.5310857162884872</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.4544701834443</v>
+        <v>2.107484800232072</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.487779941313704</v>
+        <v>0.4720289556434807</v>
       </c>
       <c r="C19">
-        <v>0.2991586694085129</v>
+        <v>0.09442896736862849</v>
       </c>
       <c r="D19">
-        <v>0.07648338686356482</v>
+        <v>0.03234025375314786</v>
       </c>
       <c r="E19">
-        <v>2.017517306525903</v>
+        <v>0.5822648774036594</v>
       </c>
       <c r="F19">
-        <v>0.5519915453465813</v>
+        <v>0.6367175830095562</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>0.2300222171113688</v>
+        <v>0.4592949665982253</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.711029838493261</v>
+        <v>0.5266482749546242</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.448515899612829</v>
+        <v>2.107701283633133</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.545674630521631</v>
+        <v>0.4895095450594908</v>
       </c>
       <c r="C20">
-        <v>0.3102148686696751</v>
+        <v>0.09776950116582839</v>
       </c>
       <c r="D20">
-        <v>0.07888862576498923</v>
+        <v>0.03317379933169917</v>
       </c>
       <c r="E20">
-        <v>2.106435290189708</v>
+        <v>0.6047602078499636</v>
       </c>
       <c r="F20">
-        <v>0.5664165746378487</v>
+        <v>0.6381790631377982</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>0.2305638287255611</v>
+        <v>0.4577778432668396</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.777032731470143</v>
+        <v>0.5466118350793749</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.475694625033327</v>
+        <v>2.106832459512958</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.741036703489925</v>
+        <v>0.5481845301332555</v>
       </c>
       <c r="C21">
-        <v>0.3475862742508582</v>
+        <v>0.1089623191430462</v>
       </c>
       <c r="D21">
-        <v>0.08696588190392163</v>
+        <v>0.03596213610445176</v>
       </c>
       <c r="E21">
-        <v>2.411638450192768</v>
+        <v>0.6805135720824467</v>
       </c>
       <c r="F21">
-        <v>0.6171197173752034</v>
+        <v>0.6436512441938333</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>0.2336902126840101</v>
+        <v>0.4530641585027375</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.999822832542975</v>
+        <v>0.6135894279108811</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.574112757200794</v>
+        <v>2.105761430600808</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.869471162011394</v>
+        <v>0.5864863691370772</v>
       </c>
       <c r="C22">
-        <v>0.3722119392087109</v>
+        <v>0.1162541706305831</v>
       </c>
       <c r="D22">
-        <v>0.09224383191646268</v>
+        <v>0.03777513364546792</v>
       </c>
       <c r="E22">
-        <v>2.616697217271991</v>
+        <v>0.730159875476275</v>
       </c>
       <c r="F22">
-        <v>0.6520839978804531</v>
+        <v>0.6476476368204089</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>0.2367873902999058</v>
+        <v>0.4502703254260361</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.146351149329803</v>
+        <v>0.6572878066463659</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.644220839321889</v>
+        <v>2.106443748056137</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.800845840844147</v>
+        <v>0.566048318140389</v>
       </c>
       <c r="C23">
-        <v>0.359048014653581</v>
+        <v>0.1123645208459152</v>
       </c>
       <c r="D23">
-        <v>0.08942684844450355</v>
+        <v>0.03680837046005792</v>
       </c>
       <c r="E23">
-        <v>2.506688355654276</v>
+        <v>0.7036495962146745</v>
       </c>
       <c r="F23">
-        <v>0.6332450030422763</v>
+        <v>0.6454761739146733</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>0.2350325477525956</v>
+        <v>0.4517351437527388</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.068051396893679</v>
+        <v>0.6339722381490276</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.60624013986893</v>
+        <v>2.1059527883192</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.542492459293385</v>
+        <v>0.4885498031998736</v>
       </c>
       <c r="C24">
-        <v>0.3096069544923523</v>
+        <v>0.09758617066088959</v>
       </c>
       <c r="D24">
-        <v>0.0787565614712662</v>
+        <v>0.03312807060398626</v>
       </c>
       <c r="E24">
-        <v>2.101529938965825</v>
+        <v>0.6035242465563755</v>
       </c>
       <c r="F24">
-        <v>0.565616392465607</v>
+        <v>0.6380966953545979</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>0.2305293647000894</v>
+        <v>0.4578597154419235</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.773404669781911</v>
+        <v>0.5455158901696961</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.474176579812848</v>
+        <v>2.106873230967182</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.266269815838399</v>
+        <v>0.4047774681259853</v>
       </c>
       <c r="C25">
-        <v>0.2569271617443434</v>
+        <v>0.08154691188487107</v>
       </c>
       <c r="D25">
-        <v>0.06723012614450141</v>
+        <v>0.02911946681508937</v>
       </c>
       <c r="E25">
-        <v>1.683650221058599</v>
+        <v>0.4960541509792193</v>
       </c>
       <c r="F25">
-        <v>0.4995108681944345</v>
+        <v>0.6319315983020317</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>0.2296948848859159</v>
+        <v>0.4656917171671076</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.458569942910714</v>
+        <v>0.4497962708934722</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.35347598297588</v>
+        <v>2.113769074292208</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_36/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3429493964269454</v>
+        <v>1.064180168887333</v>
       </c>
       <c r="C2">
-        <v>0.06965172002794873</v>
+        <v>0.2184824331658177</v>
       </c>
       <c r="D2">
-        <v>0.02613535110029375</v>
+        <v>0.05871461369920183</v>
       </c>
       <c r="E2">
-        <v>0.4172994359769717</v>
+        <v>1.387749502022743</v>
       </c>
       <c r="F2">
-        <v>0.6289244698071883</v>
+        <v>0.4557210187832936</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>0.4725067101974112</v>
+        <v>0.2320427430941159</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3790598273342312</v>
+        <v>1.228325938342721</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.123885881344393</v>
+        <v>1.28024013329491</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3009604902053695</v>
+        <v>0.9276680820628656</v>
       </c>
       <c r="C3">
-        <v>0.061536622470868</v>
+        <v>0.1925483666822458</v>
       </c>
       <c r="D3">
-        <v>0.02409310344494742</v>
+        <v>0.05291954097274498</v>
       </c>
       <c r="E3">
-        <v>0.3641208024745595</v>
+        <v>1.1925706884915</v>
       </c>
       <c r="F3">
-        <v>0.6278367374468701</v>
+        <v>0.428645065662927</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0.4777763309126506</v>
+        <v>0.2352603042514794</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3309631340923715</v>
+        <v>1.072825014835445</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.133867296146363</v>
+        <v>1.238999812584069</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2751380727278843</v>
+        <v>0.8439631575185444</v>
       </c>
       <c r="C4">
-        <v>0.05652751646390186</v>
+        <v>0.1766566667105707</v>
       </c>
       <c r="D4">
-        <v>0.02282952962679019</v>
+        <v>0.04934774598977043</v>
       </c>
       <c r="E4">
-        <v>0.3315522843217025</v>
+        <v>1.074793791895502</v>
       </c>
       <c r="F4">
-        <v>0.6276358551096948</v>
+        <v>0.4131693483325236</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0.4813320661461979</v>
+        <v>0.2379713748037844</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.301355535434908</v>
+        <v>0.9774826233397107</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.141531551795708</v>
+        <v>1.217409331296096</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2646054256215109</v>
+        <v>0.8098673664679836</v>
       </c>
       <c r="C5">
-        <v>0.05447967130373854</v>
+        <v>0.1701850451214995</v>
       </c>
       <c r="D5">
-        <v>0.02231222978210212</v>
+        <v>0.04788858075841773</v>
       </c>
       <c r="E5">
-        <v>0.3182997360578668</v>
+        <v>1.027239719044999</v>
       </c>
       <c r="F5">
-        <v>0.6276712106583346</v>
+        <v>0.407133285539814</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0.4828614232459323</v>
+        <v>0.2392517946594133</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2892715992567787</v>
+        <v>0.938646804415697</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.145040146666858</v>
+        <v>1.209492735018515</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2628559110281117</v>
+        <v>0.8042062791835178</v>
       </c>
       <c r="C6">
-        <v>0.05413923129175657</v>
+        <v>0.1691105999136937</v>
       </c>
       <c r="D6">
-        <v>0.02222618969180701</v>
+        <v>0.04764606248404846</v>
       </c>
       <c r="E6">
-        <v>0.3161002854831452</v>
+        <v>1.019367872120796</v>
       </c>
       <c r="F6">
-        <v>0.6276841548369632</v>
+        <v>0.4061468137404773</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0.4831202215763746</v>
+        <v>0.2394747535847301</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.287263962931803</v>
+        <v>0.9321986928390231</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.145645996966252</v>
+        <v>1.208229853785582</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2749960647586533</v>
+        <v>0.8435032883039071</v>
       </c>
       <c r="C7">
-        <v>0.05649992514496205</v>
+        <v>0.1765693750750188</v>
       </c>
       <c r="D7">
-        <v>0.02282256274050098</v>
+        <v>0.04932808213793294</v>
       </c>
       <c r="E7">
-        <v>0.3313734793942444</v>
+        <v>1.07415077414349</v>
       </c>
       <c r="F7">
-        <v>0.62763585760392</v>
+        <v>0.4130868726443211</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0.4813523663824455</v>
+        <v>0.2379879437494274</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3011926418602684</v>
+        <v>0.9769588229764281</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.141577310738967</v>
+        <v>1.217299067592492</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3284804428742234</v>
+        <v>1.017078338857687</v>
       </c>
       <c r="C8">
-        <v>0.06685913912150454</v>
+        <v>0.2095314506260735</v>
       </c>
       <c r="D8">
-        <v>0.02543320350022071</v>
+        <v>0.05671915988887122</v>
       </c>
       <c r="E8">
-        <v>0.3989451711657068</v>
+        <v>1.319974573271793</v>
       </c>
       <c r="F8">
-        <v>0.6284523662408716</v>
+        <v>0.4461352522651509</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0.4742571391747532</v>
+        <v>0.2329937385765817</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3624921648032284</v>
+        <v>1.174670275025107</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.127008269994576</v>
+        <v>1.265210916659726</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4330196250668905</v>
+        <v>1.35906394306366</v>
       </c>
       <c r="C9">
-        <v>0.08696300939867285</v>
+        <v>0.2746056809297386</v>
       </c>
       <c r="D9">
-        <v>0.03047489210479881</v>
+        <v>0.07111639128891056</v>
       </c>
       <c r="E9">
-        <v>0.5321920092805641</v>
+        <v>1.822294790034505</v>
       </c>
       <c r="F9">
-        <v>0.6337695595010544</v>
+        <v>0.5209569580803546</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0.4628902603821636</v>
+        <v>0.2294844634938507</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.482080110783528</v>
+        <v>1.564316285663011</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.110660902985103</v>
+        <v>1.391512250121963</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5095990029419966</v>
+        <v>1.612381127515363</v>
       </c>
       <c r="C10">
-        <v>0.1016050693617387</v>
+        <v>0.3229641541442732</v>
       </c>
       <c r="D10">
-        <v>0.03413008150781138</v>
+        <v>0.08165333609038328</v>
       </c>
       <c r="E10">
-        <v>0.6306550029007525</v>
+        <v>2.209748141276322</v>
       </c>
       <c r="F10">
-        <v>0.6399578769489622</v>
+        <v>0.5833830622761127</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0.4561006330277806</v>
+        <v>0.2314097837064502</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5695492469239412</v>
+        <v>1.853092468277282</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.106157102289842</v>
+        <v>1.508153758027333</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5443850744516681</v>
+        <v>1.72833626127175</v>
       </c>
       <c r="C11">
-        <v>0.1082383929685591</v>
+        <v>0.3451536694253718</v>
       </c>
       <c r="D11">
-        <v>0.03578199605599508</v>
+        <v>0.08644258834746665</v>
       </c>
       <c r="E11">
-        <v>0.6755970522736021</v>
+        <v>2.391552916646361</v>
       </c>
       <c r="F11">
-        <v>0.643272201252536</v>
+        <v>0.6137311829266423</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0.4533528994753127</v>
+        <v>0.2334279239907922</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6092537054502145</v>
+        <v>1.985335942249776</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.105750366634226</v>
+        <v>1.56740879000489</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5575500160009597</v>
+        <v>1.772373142283868</v>
       </c>
       <c r="C12">
-        <v>0.1107462947899194</v>
+        <v>0.3535902859388216</v>
       </c>
       <c r="D12">
-        <v>0.03640594065366543</v>
+        <v>0.0882559674652228</v>
       </c>
       <c r="E12">
-        <v>0.6926390146231967</v>
+        <v>2.461343519011066</v>
       </c>
       <c r="F12">
-        <v>0.6445993015316844</v>
+        <v>0.6255340081426937</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>0.4523615882685768</v>
+        <v>0.2343715730389775</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6242760389982038</v>
+        <v>2.035569169113984</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.105833419773376</v>
+        <v>1.590831486664285</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5547150655618225</v>
+        <v>1.762882953530635</v>
       </c>
       <c r="C13">
-        <v>0.1102063516832743</v>
+        <v>0.3517716900869345</v>
       </c>
       <c r="D13">
-        <v>0.03627163478749651</v>
+        <v>0.08786542663526831</v>
       </c>
       <c r="E13">
-        <v>0.6889676557750732</v>
+        <v>2.446268290550989</v>
       </c>
       <c r="F13">
-        <v>0.6443102788797646</v>
+        <v>0.6229777305752293</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0.4525728940902773</v>
+        <v>0.2341601047941992</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.621041292549279</v>
+        <v>2.024743131494489</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.105804973691676</v>
+        <v>1.585741637845842</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5454683214053091</v>
+        <v>1.731956509098126</v>
       </c>
       <c r="C14">
-        <v>0.1084447998897531</v>
+        <v>0.3458470354104577</v>
       </c>
       <c r="D14">
-        <v>0.03583336063724119</v>
+        <v>0.08659177799584938</v>
       </c>
       <c r="E14">
-        <v>0.6769986262960117</v>
+        <v>2.397274782398796</v>
       </c>
       <c r="F14">
-        <v>0.6433799374226794</v>
+        <v>0.6146957993388398</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0.4532703567462519</v>
+        <v>0.2335018707620229</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6104898632670483</v>
+        <v>1.989465365545698</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.105752442689806</v>
+        <v>1.569315499460117</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5398033927484391</v>
+        <v>1.713030474429218</v>
       </c>
       <c r="C15">
-        <v>0.1073652769510147</v>
+        <v>0.3422226357402849</v>
       </c>
       <c r="D15">
-        <v>0.03556469558551356</v>
+        <v>0.08581161629908252</v>
       </c>
       <c r="E15">
-        <v>0.6696703463099425</v>
+        <v>2.367392599408007</v>
       </c>
       <c r="F15">
-        <v>0.6428194652369967</v>
+        <v>0.6096642783531223</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0.4537039847019884</v>
+        <v>0.2331225236733161</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6040251138252017</v>
+        <v>1.967877884027672</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.105751168284797</v>
+        <v>1.559385099241638</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5073245918154896</v>
+        <v>1.604819644442415</v>
       </c>
       <c r="C16">
-        <v>0.1011710099069205</v>
+        <v>0.3215183972371563</v>
       </c>
       <c r="D16">
-        <v>0.03402190330881183</v>
+        <v>0.08134029693110989</v>
       </c>
       <c r="E16">
-        <v>0.6277211131709919</v>
+        <v>2.197990606371661</v>
       </c>
       <c r="F16">
-        <v>0.6397513451047416</v>
+        <v>0.5814415035212974</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0.4562870786100106</v>
+        <v>0.2313021440213987</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5669526948046268</v>
+        <v>1.84447014547942</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.106216806973435</v>
+        <v>1.504413727676564</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4873866239897495</v>
+        <v>1.538636319530838</v>
       </c>
       <c r="C17">
-        <v>0.097363967834184</v>
+        <v>0.3088703204765011</v>
       </c>
       <c r="D17">
-        <v>0.03307264324293868</v>
+        <v>0.07859650496868653</v>
       </c>
       <c r="E17">
-        <v>0.602026435657379</v>
+        <v>2.095588467760891</v>
       </c>
       <c r="F17">
-        <v>0.6379971943104934</v>
+        <v>0.5646478676890681</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0.4579591603172055</v>
+        <v>0.2304883277570546</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5441876184393379</v>
+        <v>1.769008237626736</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.106923707552085</v>
+        <v>1.472340762786416</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4759141336213588</v>
+        <v>1.50063563339063</v>
       </c>
       <c r="C18">
-        <v>0.09517167971577578</v>
+        <v>0.3016130332852072</v>
       </c>
       <c r="D18">
-        <v>0.03252563509625617</v>
+        <v>0.07701794190187172</v>
       </c>
       <c r="E18">
-        <v>0.5872616221731448</v>
+        <v>2.037202078336378</v>
       </c>
       <c r="F18">
-        <v>0.6370352279284219</v>
+        <v>0.5551702058464656</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0.4589529743305754</v>
+        <v>0.2301267750926748</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5310857162884872</v>
+        <v>1.725685244591034</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.107484800232072</v>
+        <v>1.4544701834443</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4720289556434807</v>
+        <v>1.487779941313732</v>
       </c>
       <c r="C19">
-        <v>0.09442896736862849</v>
+        <v>0.2991586694084845</v>
       </c>
       <c r="D19">
-        <v>0.03234025375314786</v>
+        <v>0.07648338686355771</v>
       </c>
       <c r="E19">
-        <v>0.5822648774036594</v>
+        <v>2.017517306525875</v>
       </c>
       <c r="F19">
-        <v>0.6367175830095562</v>
+        <v>0.5519915453465813</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0.4592949665982253</v>
+        <v>0.2300222171113724</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5266482749546242</v>
+        <v>1.711029838493147</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.107701283633133</v>
+        <v>1.448515899612801</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4895095450594908</v>
+        <v>1.545674630521518</v>
       </c>
       <c r="C20">
-        <v>0.09776950116582839</v>
+        <v>0.3102148686694193</v>
       </c>
       <c r="D20">
-        <v>0.03317379933169917</v>
+        <v>0.07888862576486133</v>
       </c>
       <c r="E20">
-        <v>0.6047602078499636</v>
+        <v>2.106435290189708</v>
       </c>
       <c r="F20">
-        <v>0.6381790631377982</v>
+        <v>0.5664165746378345</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0.4577778432668396</v>
+        <v>0.2305638287255611</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5466118350793749</v>
+        <v>1.77703273147003</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.106832459512958</v>
+        <v>1.475694625033327</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5481845301332555</v>
+        <v>1.741036703489954</v>
       </c>
       <c r="C21">
-        <v>0.1089623191430462</v>
+        <v>0.3475862742506308</v>
       </c>
       <c r="D21">
-        <v>0.03596213610445176</v>
+        <v>0.0869658819040211</v>
       </c>
       <c r="E21">
-        <v>0.6805135720824467</v>
+        <v>2.411638450192783</v>
       </c>
       <c r="F21">
-        <v>0.6436512441938333</v>
+        <v>0.6171197173752176</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0.4530641585027375</v>
+        <v>0.2336902126840101</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6135894279108811</v>
+        <v>1.999822832542947</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.105761430600808</v>
+        <v>1.574112757200766</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5864863691370772</v>
+        <v>1.869471162011564</v>
       </c>
       <c r="C22">
-        <v>0.1162541706305831</v>
+        <v>0.3722119392087109</v>
       </c>
       <c r="D22">
-        <v>0.03777513364546792</v>
+        <v>0.09224383191647689</v>
       </c>
       <c r="E22">
-        <v>0.730159875476275</v>
+        <v>2.616697217271991</v>
       </c>
       <c r="F22">
-        <v>0.6476476368204089</v>
+        <v>0.6520839978804389</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0.4502703254260361</v>
+        <v>0.2367873902998916</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6572878066463659</v>
+        <v>2.146351149329831</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.106443748056137</v>
+        <v>1.644220839321832</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.566048318140389</v>
+        <v>1.800845840844431</v>
       </c>
       <c r="C23">
-        <v>0.1123645208459152</v>
+        <v>0.3590480146538084</v>
       </c>
       <c r="D23">
-        <v>0.03680837046005792</v>
+        <v>0.08942684844427617</v>
       </c>
       <c r="E23">
-        <v>0.7036495962146745</v>
+        <v>2.50668835565429</v>
       </c>
       <c r="F23">
-        <v>0.6454761739146733</v>
+        <v>0.6332450030422621</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0.4517351437527388</v>
+        <v>0.2350325477525921</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6339722381490276</v>
+        <v>2.068051396893736</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.1059527883192</v>
+        <v>1.606240139868959</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4885498031998736</v>
+        <v>1.542492459293555</v>
       </c>
       <c r="C24">
-        <v>0.09758617066088959</v>
+        <v>0.3096069544921249</v>
       </c>
       <c r="D24">
-        <v>0.03312807060398626</v>
+        <v>0.0787565614712733</v>
       </c>
       <c r="E24">
-        <v>0.6035242465563755</v>
+        <v>2.101529938965854</v>
       </c>
       <c r="F24">
-        <v>0.6380966953545979</v>
+        <v>0.5656163924655928</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0.4578597154419235</v>
+        <v>0.2305293647000894</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5455158901696961</v>
+        <v>1.773404669781911</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.106873230967182</v>
+        <v>1.474176579812877</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4047774681259853</v>
+        <v>1.266269815838541</v>
       </c>
       <c r="C25">
-        <v>0.08154691188487107</v>
+        <v>0.2569271617443292</v>
       </c>
       <c r="D25">
-        <v>0.02911946681508937</v>
+        <v>0.06723012614449431</v>
       </c>
       <c r="E25">
-        <v>0.4960541509792193</v>
+        <v>1.683650221058585</v>
       </c>
       <c r="F25">
-        <v>0.6319315983020317</v>
+        <v>0.4995108681944345</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0.4656917171671076</v>
+        <v>0.2296948848859337</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4497962708934722</v>
+        <v>1.458569942910657</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.113769074292208</v>
+        <v>1.353475982975823</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_36/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.064180168887333</v>
+        <v>0.9503295568249825</v>
       </c>
       <c r="C2">
-        <v>0.2184824331658177</v>
+        <v>0.2219627224269658</v>
       </c>
       <c r="D2">
-        <v>0.05871461369920183</v>
+        <v>0.06358575533337785</v>
       </c>
       <c r="E2">
-        <v>1.387749502022743</v>
+        <v>1.300904611195179</v>
       </c>
       <c r="F2">
-        <v>0.4557210187832936</v>
+        <v>0.5170674650232456</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.005660803776410983</v>
       </c>
       <c r="I2">
-        <v>0.2320427430941159</v>
+        <v>0.00078335935435625</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="K2">
-        <v>1.228325938342721</v>
+        <v>0.2977310518973155</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.110010825192262</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.28024013329491</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.7341441184277659</v>
+      </c>
+      <c r="Q2">
+        <v>1.532212274550687</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9276680820628656</v>
+        <v>0.8272297977212588</v>
       </c>
       <c r="C3">
-        <v>0.1925483666822458</v>
+        <v>0.1959897784236517</v>
       </c>
       <c r="D3">
-        <v>0.05291954097274498</v>
+        <v>0.05714534025113949</v>
       </c>
       <c r="E3">
-        <v>1.1925706884915</v>
+        <v>1.132937634612574</v>
       </c>
       <c r="F3">
-        <v>0.428645065662927</v>
+        <v>0.4850094009277583</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0.003652149261824666</v>
+      </c>
+      <c r="I3">
+        <v>0.000465470192585915</v>
+      </c>
+      <c r="J3">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I3">
-        <v>0.2352603042514794</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="K3">
-        <v>1.072825014835445</v>
+        <v>0.2944941807380701</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.9677269011061753</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.238999812584069</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.7606738346989355</v>
+      </c>
+      <c r="Q3">
+        <v>1.468382031272057</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8439631575185444</v>
+        <v>0.7512882096376643</v>
       </c>
       <c r="C4">
-        <v>0.1766566667105707</v>
+        <v>0.1802130831629825</v>
       </c>
       <c r="D4">
-        <v>0.04934774598977043</v>
+        <v>0.05318445899904845</v>
       </c>
       <c r="E4">
-        <v>1.074793791895502</v>
+        <v>1.029968017709493</v>
       </c>
       <c r="F4">
-        <v>0.4131693483325236</v>
+        <v>0.4657344187926569</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0.00260252165573216</v>
+      </c>
+      <c r="I4">
+        <v>0.0004255123789826953</v>
+      </c>
+      <c r="J4">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I4">
-        <v>0.2379713748037844</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
       <c r="K4">
-        <v>0.9774826233397107</v>
+        <v>0.2926791805915911</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.8802903863944778</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.217409331296096</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.7775035544444187</v>
+      </c>
+      <c r="Q4">
+        <v>1.430330265280645</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8098673664679836</v>
+        <v>0.7195532552339046</v>
       </c>
       <c r="C5">
-        <v>0.1701850451214995</v>
+        <v>0.1742149558561437</v>
       </c>
       <c r="D5">
-        <v>0.04788858075841773</v>
+        <v>0.05161647493498123</v>
       </c>
       <c r="E5">
-        <v>1.027239719044999</v>
+        <v>0.9880206544674621</v>
       </c>
       <c r="F5">
-        <v>0.407133285539814</v>
+        <v>0.4575696598776062</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
+        <v>0.002216940602826956</v>
+      </c>
+      <c r="I5">
+        <v>0.0005114763484956875</v>
+      </c>
+      <c r="J5">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I5">
-        <v>0.2392517946594133</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
       <c r="K5">
-        <v>0.938646804415697</v>
+        <v>0.2916596869004522</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.8445994185148038</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.209492735018515</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.7844579574157438</v>
+      </c>
+      <c r="Q5">
+        <v>1.413759216581028</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8042062791835178</v>
+        <v>0.713426617235001</v>
       </c>
       <c r="C6">
-        <v>0.1691105999136937</v>
+        <v>0.1737025335381333</v>
       </c>
       <c r="D6">
-        <v>0.04764606248404846</v>
+        <v>0.05141495005833008</v>
       </c>
       <c r="E6">
-        <v>1.019367872120796</v>
+        <v>0.9810417198865196</v>
       </c>
       <c r="F6">
-        <v>0.4061468137404773</v>
+        <v>0.455722755487038</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
+        <v>0.002154418391786761</v>
+      </c>
+      <c r="I6">
+        <v>0.0006151499661761761</v>
+      </c>
+      <c r="J6">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I6">
-        <v>0.2394747535847301</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
       <c r="K6">
-        <v>0.9321986928390231</v>
+        <v>0.2911005534774702</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.8386293341369537</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.208229853785582</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.7855782749721785</v>
+      </c>
+      <c r="Q6">
+        <v>1.409392731413263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8435032883039071</v>
+        <v>0.748526743697397</v>
       </c>
       <c r="C7">
-        <v>0.1765693750750188</v>
+        <v>0.1814494500713266</v>
       </c>
       <c r="D7">
-        <v>0.04932808213793294</v>
+        <v>0.05332494905844243</v>
       </c>
       <c r="E7">
-        <v>1.07415077414349</v>
+        <v>1.029361546820923</v>
       </c>
       <c r="F7">
-        <v>0.4130868726443211</v>
+        <v>0.464266322393236</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
+        <v>0.00259415542649899</v>
+      </c>
+      <c r="I7">
+        <v>0.0006495554148600036</v>
+      </c>
+      <c r="J7">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I7">
-        <v>0.2379879437494274</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
       <c r="K7">
-        <v>0.9769588229764281</v>
+        <v>0.2915940815044848</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.8796938337958693</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.217299067592492</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.7774924401933934</v>
+      </c>
+      <c r="Q7">
+        <v>1.425651430849797</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.017078338857687</v>
+        <v>0.9048360971923444</v>
       </c>
       <c r="C8">
-        <v>0.2095314506260735</v>
+        <v>0.2147288890322159</v>
       </c>
       <c r="D8">
-        <v>0.05671915988887122</v>
+        <v>0.06158275799973012</v>
       </c>
       <c r="E8">
-        <v>1.319974573271793</v>
+        <v>1.242890342949877</v>
       </c>
       <c r="F8">
-        <v>0.4461352522651509</v>
+        <v>0.5041261070968517</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0.004922973049911405</v>
+      </c>
+      <c r="I8">
+        <v>0.0009065762135929134</v>
+      </c>
+      <c r="J8">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I8">
-        <v>0.2329937385765817</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
       <c r="K8">
-        <v>1.174670275025107</v>
+        <v>0.295164280506711</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.060805175940999</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.265210916659726</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.7430905595902679</v>
+      </c>
+      <c r="Q8">
+        <v>1.504064223862059</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.35906394306366</v>
+        <v>1.212885697736226</v>
       </c>
       <c r="C9">
-        <v>0.2746056809297386</v>
+        <v>0.2791616937363983</v>
       </c>
       <c r="D9">
-        <v>0.07111639128891056</v>
+        <v>0.07744962377422127</v>
       </c>
       <c r="E9">
-        <v>1.822294790034505</v>
+        <v>1.663726205513129</v>
       </c>
       <c r="F9">
-        <v>0.5209569580803546</v>
+        <v>0.5882889732057635</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
+        <v>0.01110551183288144</v>
+      </c>
+      <c r="I9">
+        <v>0.002407618088422936</v>
+      </c>
+      <c r="J9">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I9">
-        <v>0.2294844634938507</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
       <c r="K9">
-        <v>1.564316285663011</v>
+        <v>0.3055448301335737</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.415952825199497</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.391512250121963</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.6801896595342232</v>
+      </c>
+      <c r="Q9">
+        <v>1.67569961500206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.612381127515363</v>
+        <v>1.431750531438638</v>
       </c>
       <c r="C10">
-        <v>0.3229641541442732</v>
+        <v>0.3255026055681753</v>
       </c>
       <c r="D10">
-        <v>0.08165333609038328</v>
+        <v>0.09023007927338256</v>
       </c>
       <c r="E10">
-        <v>2.209748141276322</v>
+        <v>1.87525416021694</v>
       </c>
       <c r="F10">
-        <v>0.5833830622761127</v>
+        <v>0.6445056557806055</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0.01634419500031647</v>
+      </c>
+      <c r="I10">
+        <v>0.004514805216690121</v>
+      </c>
+      <c r="J10">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I10">
-        <v>0.2314097837064502</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
       <c r="K10">
-        <v>1.853092468277282</v>
+        <v>0.3102005249615871</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.66902808708366</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.508153758027333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.6377369466320069</v>
+      </c>
+      <c r="Q10">
+        <v>1.782557670885808</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.72833626127175</v>
+        <v>1.484823145189068</v>
       </c>
       <c r="C11">
-        <v>0.3451536694253718</v>
+        <v>0.324042381629539</v>
       </c>
       <c r="D11">
-        <v>0.08644258834746665</v>
+        <v>0.1058053958953593</v>
       </c>
       <c r="E11">
-        <v>2.391552916646361</v>
+        <v>1.201070524859247</v>
       </c>
       <c r="F11">
-        <v>0.6137311829266423</v>
+        <v>0.6034476433573062</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
+        <v>0.03235694163463165</v>
+      </c>
+      <c r="I11">
+        <v>0.005494243982161251</v>
+      </c>
+      <c r="J11">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I11">
-        <v>0.2334279239907922</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
       <c r="K11">
-        <v>1.985335942249776</v>
+        <v>0.2815168229216063</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.712679496723098</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.56740879000489</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.6296501650415998</v>
+      </c>
+      <c r="Q11">
+        <v>1.619307724042642</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.772373142283868</v>
+        <v>1.486896945976753</v>
       </c>
       <c r="C12">
-        <v>0.3535902859388216</v>
+        <v>0.3113054321665629</v>
       </c>
       <c r="D12">
-        <v>0.0882559674652228</v>
+        <v>0.1166120020663186</v>
       </c>
       <c r="E12">
-        <v>2.461343519011066</v>
+        <v>0.7177465496080799</v>
       </c>
       <c r="F12">
-        <v>0.6255340081426937</v>
+        <v>0.5596539623512911</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
+        <v>0.0689165069846851</v>
+      </c>
+      <c r="I12">
+        <v>0.005499514388469962</v>
+      </c>
+      <c r="J12">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I12">
-        <v>0.2343715730389775</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
       <c r="K12">
-        <v>2.035569169113984</v>
+        <v>0.2588291128687601</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.695957571005891</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.590831486664285</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.6356083461417477</v>
+      </c>
+      <c r="Q12">
+        <v>1.470541056436559</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.762882953530635</v>
+        <v>1.446169868044251</v>
       </c>
       <c r="C13">
-        <v>0.3517716900869345</v>
+        <v>0.2913931966694037</v>
       </c>
       <c r="D13">
-        <v>0.08786542663526831</v>
+        <v>0.1244988897677075</v>
       </c>
       <c r="E13">
-        <v>2.446268290550989</v>
+        <v>0.3532936327332905</v>
       </c>
       <c r="F13">
-        <v>0.6229777305752293</v>
+        <v>0.5091273274015293</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
+        <v>0.1226714396411097</v>
+      </c>
+      <c r="I13">
+        <v>0.005077205539353535</v>
+      </c>
+      <c r="J13">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I13">
-        <v>0.2341601047941992</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
       <c r="K13">
-        <v>2.024743131494489</v>
+        <v>0.2377196950092966</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.631851014598737</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.585741637845842</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.6518357299812934</v>
+      </c>
+      <c r="Q13">
+        <v>1.31740033748423</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.731956509098126</v>
+        <v>1.39778868954852</v>
       </c>
       <c r="C14">
-        <v>0.3458470354104577</v>
+        <v>0.2747992823102834</v>
       </c>
       <c r="D14">
-        <v>0.08659177799584938</v>
+        <v>0.1287608021394107</v>
       </c>
       <c r="E14">
-        <v>2.397274782398796</v>
+        <v>0.1701623084437358</v>
       </c>
       <c r="F14">
-        <v>0.6146957993388398</v>
+        <v>0.4707750159479929</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
+        <v>0.170753995464338</v>
+      </c>
+      <c r="I14">
+        <v>0.004687693525831094</v>
+      </c>
+      <c r="J14">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I14">
-        <v>0.2335018707620229</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
       <c r="K14">
-        <v>1.989465365545698</v>
+        <v>0.2236201471301662</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.565914042508297</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.569315499460117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.6681418055002055</v>
+      </c>
+      <c r="Q14">
+        <v>1.208666019643204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.713030474429218</v>
+        <v>1.376051655680669</v>
       </c>
       <c r="C15">
-        <v>0.3422226357402849</v>
+        <v>0.2696860186199075</v>
       </c>
       <c r="D15">
-        <v>0.08581161629908252</v>
+        <v>0.1291588171955169</v>
       </c>
       <c r="E15">
-        <v>2.367392599408007</v>
+        <v>0.1345409729894769</v>
       </c>
       <c r="F15">
-        <v>0.6096642783531223</v>
+        <v>0.4595427901152362</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
+        <v>0.1828475966195384</v>
+      </c>
+      <c r="I15">
+        <v>0.004607887249423293</v>
+      </c>
+      <c r="J15">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I15">
-        <v>0.2331225236733161</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
       <c r="K15">
-        <v>1.967877884027672</v>
+        <v>0.2201271203435056</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.539863931270503</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.559385099241638</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.6739267797912518</v>
+      </c>
+      <c r="Q15">
+        <v>1.179492820166885</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.604819644442415</v>
+        <v>1.289815238479065</v>
       </c>
       <c r="C16">
-        <v>0.3215183972371563</v>
+        <v>0.2551592455408809</v>
       </c>
       <c r="D16">
-        <v>0.08134029693110989</v>
+        <v>0.1218171473013143</v>
       </c>
       <c r="E16">
-        <v>2.197990606371661</v>
+        <v>0.1316413526163167</v>
       </c>
       <c r="F16">
-        <v>0.5814415035212974</v>
+        <v>0.4454599288065282</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
+        <v>0.1685829381247999</v>
+      </c>
+      <c r="I16">
+        <v>0.003907712304263455</v>
+      </c>
+      <c r="J16">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I16">
-        <v>0.2313021440213987</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
       <c r="K16">
-        <v>1.84447014547942</v>
+        <v>0.221867303398227</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.44571077939122</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.504413727676564</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.6865349820302455</v>
+      </c>
+      <c r="Q16">
+        <v>1.16386771545568</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.538636319530838</v>
+        <v>1.249211575172524</v>
       </c>
       <c r="C17">
-        <v>0.3088703204765011</v>
+        <v>0.2527750584287816</v>
       </c>
       <c r="D17">
-        <v>0.07859650496868653</v>
+        <v>0.1139491406815978</v>
       </c>
       <c r="E17">
-        <v>2.095588467760891</v>
+        <v>0.2131853944011297</v>
       </c>
       <c r="F17">
-        <v>0.5646478676890681</v>
+        <v>0.4548722353551113</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
+        <v>0.1302356153349962</v>
+      </c>
+      <c r="I17">
+        <v>0.003603827347277822</v>
+      </c>
+      <c r="J17">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I17">
-        <v>0.2304883277570546</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
       <c r="K17">
-        <v>1.769008237626736</v>
+        <v>0.2305922305300179</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.408337167327062</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.472340762786416</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.6877301428611702</v>
+      </c>
+      <c r="Q17">
+        <v>1.208925052666444</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.50063563339063</v>
+        <v>1.245118937810815</v>
       </c>
       <c r="C18">
-        <v>0.3016130332852072</v>
+        <v>0.2597788425863996</v>
       </c>
       <c r="D18">
-        <v>0.07701794190187172</v>
+        <v>0.1047996846682153</v>
       </c>
       <c r="E18">
-        <v>2.037202078336378</v>
+        <v>0.4392454816590288</v>
       </c>
       <c r="F18">
-        <v>0.5551702058464656</v>
+        <v>0.4869754618032474</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
+        <v>0.07790618029886076</v>
+      </c>
+      <c r="I18">
+        <v>0.003317217974135644</v>
+      </c>
+      <c r="J18">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I18">
-        <v>0.2301267750926748</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
       <c r="K18">
-        <v>1.725685244591034</v>
+        <v>0.2474850462255418</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.415631464646111</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.4544701834443</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.6805183084719069</v>
+      </c>
+      <c r="Q18">
+        <v>1.317025276825717</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.487779941313732</v>
+        <v>1.266372108171026</v>
       </c>
       <c r="C19">
-        <v>0.2991586694084845</v>
+        <v>0.2767791111514981</v>
       </c>
       <c r="D19">
-        <v>0.07648338686355771</v>
+        <v>0.0959786875409776</v>
       </c>
       <c r="E19">
-        <v>2.017517306525875</v>
+        <v>0.8618076404199115</v>
       </c>
       <c r="F19">
-        <v>0.5519915453465813</v>
+        <v>0.5338533123704394</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
+        <v>0.03455613894077914</v>
+      </c>
+      <c r="I19">
+        <v>0.00358713552317802</v>
+      </c>
+      <c r="J19">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I19">
-        <v>0.2300222171113724</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
       <c r="K19">
-        <v>1.711029838493147</v>
+        <v>0.2689860909804374</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.458630705845195</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.448515899612801</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.6703122761858964</v>
+      </c>
+      <c r="Q19">
+        <v>1.466322567281082</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.545674630521518</v>
+        <v>1.366683300415389</v>
       </c>
       <c r="C20">
-        <v>0.3102148686694193</v>
+        <v>0.3173699774441445</v>
       </c>
       <c r="D20">
-        <v>0.07888862576486133</v>
+        <v>0.08744034465048856</v>
       </c>
       <c r="E20">
-        <v>2.106435290189708</v>
+        <v>1.815302130274432</v>
       </c>
       <c r="F20">
-        <v>0.5664165746378345</v>
+        <v>0.6250114341986404</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
+        <v>0.01482939547195938</v>
+      </c>
+      <c r="I20">
+        <v>0.004589165692179265</v>
+      </c>
+      <c r="J20">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I20">
-        <v>0.2305638287255611</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
       <c r="K20">
-        <v>1.77703273147003</v>
+        <v>0.305478649461584</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.601820342284498</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.475694625033327</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.6487843687756314</v>
+      </c>
+      <c r="Q20">
+        <v>1.739189996715481</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.741036703489954</v>
+        <v>1.543256572768541</v>
       </c>
       <c r="C21">
-        <v>0.3475862742506308</v>
+        <v>0.3570330822935546</v>
       </c>
       <c r="D21">
-        <v>0.0869658819040211</v>
+        <v>0.0955509846331779</v>
       </c>
       <c r="E21">
-        <v>2.411638450192783</v>
+        <v>2.133177298239517</v>
       </c>
       <c r="F21">
-        <v>0.6171197173752176</v>
+        <v>0.6817535123600322</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
+        <v>0.02007647646698008</v>
+      </c>
+      <c r="I21">
+        <v>0.006495762282124673</v>
+      </c>
+      <c r="J21">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I21">
-        <v>0.2336902126840101</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
       <c r="K21">
-        <v>1.999822832542947</v>
+        <v>0.3155283177297648</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.809020486175655</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.574112757200766</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.6161005321358139</v>
+      </c>
+      <c r="Q21">
+        <v>1.864423493058297</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.869471162011564</v>
+        <v>1.6591648834019</v>
       </c>
       <c r="C22">
-        <v>0.3722119392087109</v>
+        <v>0.3800132168933601</v>
       </c>
       <c r="D22">
-        <v>0.09224383191647689</v>
+        <v>0.1011677671210407</v>
       </c>
       <c r="E22">
-        <v>2.616697217271991</v>
+        <v>2.290940188614243</v>
       </c>
       <c r="F22">
-        <v>0.6520839978804389</v>
+        <v>0.7173904709215009</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
+        <v>0.02354412679780937</v>
+      </c>
+      <c r="I22">
+        <v>0.007654849637893868</v>
+      </c>
+      <c r="J22">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I22">
-        <v>0.2367873902998916</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
       <c r="K22">
-        <v>2.146351149329831</v>
+        <v>0.3219334591415262</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.940711006522235</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.644220839321832</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.5956901653976949</v>
+      </c>
+      <c r="Q22">
+        <v>1.941423629601502</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.800845840844431</v>
+        <v>1.600172876537869</v>
       </c>
       <c r="C23">
-        <v>0.3590480146538084</v>
+        <v>0.3660977829533181</v>
       </c>
       <c r="D23">
-        <v>0.08942684844427617</v>
+        <v>0.09796910283940008</v>
       </c>
       <c r="E23">
-        <v>2.50668835565429</v>
+        <v>2.206718880803265</v>
       </c>
       <c r="F23">
-        <v>0.6332450030422621</v>
+        <v>0.699914023357735</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
+        <v>0.02167355122453118</v>
+      </c>
+      <c r="I23">
+        <v>0.006749011393916149</v>
+      </c>
+      <c r="J23">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I23">
-        <v>0.2350325477525921</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
       <c r="K23">
-        <v>2.068051396893736</v>
+        <v>0.3197345790996344</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.870552010347296</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.606240139868959</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.6064673177620143</v>
+      </c>
+      <c r="Q23">
+        <v>1.905388024998018</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.542492459293555</v>
+        <v>1.371968167437927</v>
       </c>
       <c r="C24">
-        <v>0.3096069544921249</v>
+        <v>0.3165589362348271</v>
       </c>
       <c r="D24">
-        <v>0.0787565614712733</v>
+        <v>0.08618517810005244</v>
       </c>
       <c r="E24">
-        <v>2.101529938965854</v>
+        <v>1.889253417765573</v>
       </c>
       <c r="F24">
-        <v>0.5656163924655928</v>
+        <v>0.6325413871152108</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
+        <v>0.01516164860121516</v>
+      </c>
+      <c r="I24">
+        <v>0.004168282299267467</v>
+      </c>
+      <c r="J24">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I24">
-        <v>0.2305293647000894</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
       <c r="K24">
-        <v>1.773404669781911</v>
+        <v>0.3099754405747035</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.605132036398714</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.474176579812877</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.6486593254132806</v>
+      </c>
+      <c r="Q24">
+        <v>1.764382602626881</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.266269815838541</v>
+        <v>1.125503601741798</v>
       </c>
       <c r="C25">
-        <v>0.2569271617443292</v>
+        <v>0.2639739183665881</v>
       </c>
       <c r="D25">
-        <v>0.06723012614449431</v>
+        <v>0.07345861304570889</v>
       </c>
       <c r="E25">
-        <v>1.683650221058585</v>
+        <v>1.549470497323114</v>
       </c>
       <c r="F25">
-        <v>0.4995108681944345</v>
+        <v>0.5626324085448644</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
+        <v>0.009229829969554113</v>
+      </c>
+      <c r="I25">
+        <v>0.002226179075654144</v>
+      </c>
+      <c r="J25">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I25">
-        <v>0.2296948848859337</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
       <c r="K25">
-        <v>1.458569942910657</v>
+        <v>0.3006446368975588</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.319622338362564</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.353475982975823</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.6966753977092903</v>
+      </c>
+      <c r="Q25">
+        <v>1.62004577271108</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_36/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9503295568249825</v>
+        <v>0.9105792665205286</v>
       </c>
       <c r="C2">
-        <v>0.2219627224269658</v>
+        <v>0.2423998206340769</v>
       </c>
       <c r="D2">
-        <v>0.06358575533337785</v>
+        <v>0.06601525802544472</v>
       </c>
       <c r="E2">
-        <v>1.300904611195179</v>
+        <v>1.303121916555767</v>
       </c>
       <c r="F2">
-        <v>0.5170674650232456</v>
+        <v>0.4869864125235353</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.005660803776410983</v>
+        <v>0.005875183643342941</v>
       </c>
       <c r="I2">
-        <v>0.00078335935435625</v>
+        <v>0.001115853062953143</v>
       </c>
       <c r="J2">
-        <v>0.02672462365074526</v>
+        <v>0.07607150459155762</v>
       </c>
       <c r="K2">
-        <v>0.2977310518973155</v>
+        <v>0.2696786880554569</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1502352024261313</v>
       </c>
       <c r="M2">
-        <v>1.110010825192262</v>
+        <v>0.06355379025965568</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.110597856987908</v>
       </c>
       <c r="P2">
-        <v>0.7341441184277659</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.532212274550687</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.7194432395916568</v>
+      </c>
+      <c r="S2">
+        <v>1.42873351041618</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8272297977212588</v>
+        <v>0.7967264539339851</v>
       </c>
       <c r="C3">
-        <v>0.1959897784236517</v>
+        <v>0.2105433218257247</v>
       </c>
       <c r="D3">
-        <v>0.05714534025113949</v>
+        <v>0.05884063059354361</v>
       </c>
       <c r="E3">
-        <v>1.132937634612574</v>
+        <v>1.135429820093975</v>
       </c>
       <c r="F3">
-        <v>0.4850094009277583</v>
+        <v>0.4591493143544199</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.003652149261824666</v>
+        <v>0.003860966386144193</v>
       </c>
       <c r="I3">
-        <v>0.000465470192585915</v>
+        <v>0.0006935145754609628</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142331</v>
       </c>
       <c r="K3">
-        <v>0.2944941807380701</v>
+        <v>0.2690113499636908</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1543744309841806</v>
       </c>
       <c r="M3">
-        <v>0.9677269011061753</v>
+        <v>0.06013612918669686</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.9688412320629425</v>
       </c>
       <c r="P3">
-        <v>0.7606738346989355</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.468382031272057</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.7434838413057481</v>
+      </c>
+      <c r="S3">
+        <v>1.377934253782996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7512882096376643</v>
+        <v>0.7262964843812085</v>
       </c>
       <c r="C4">
-        <v>0.1802130831629825</v>
+        <v>0.1912727997605543</v>
       </c>
       <c r="D4">
-        <v>0.05318445899904845</v>
+        <v>0.05444130472433528</v>
       </c>
       <c r="E4">
-        <v>1.029968017709493</v>
+        <v>1.03260119942054</v>
       </c>
       <c r="F4">
-        <v>0.4657344187926569</v>
+        <v>0.4423690023619287</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.00260252165573216</v>
+        <v>0.002798649861284863</v>
       </c>
       <c r="I4">
-        <v>0.0004255123789826953</v>
+        <v>0.0005666149660052966</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153714</v>
       </c>
       <c r="K4">
-        <v>0.2926791805915911</v>
+        <v>0.2687041769254463</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1569833185868497</v>
       </c>
       <c r="M4">
-        <v>0.8802903863944778</v>
+        <v>0.05855421199085065</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.8816904818411899</v>
       </c>
       <c r="P4">
-        <v>0.7775035544444187</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.430330265280645</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.7588184905712065</v>
+      </c>
+      <c r="S4">
+        <v>1.347580217015519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7195532552339046</v>
+        <v>0.6967830282734155</v>
       </c>
       <c r="C5">
-        <v>0.1742149558561437</v>
+        <v>0.183903155264133</v>
       </c>
       <c r="D5">
-        <v>0.05161647493498123</v>
+        <v>0.05269916782048512</v>
       </c>
       <c r="E5">
-        <v>0.9880206544674621</v>
+        <v>0.9907051171685168</v>
       </c>
       <c r="F5">
-        <v>0.4575696598776062</v>
+        <v>0.4352092244513486</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.002216940602826956</v>
+        <v>0.002405699269219852</v>
       </c>
       <c r="I5">
-        <v>0.0005114763484956875</v>
+        <v>0.0006237608876924483</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153728</v>
       </c>
       <c r="K5">
-        <v>0.2916596869004522</v>
+        <v>0.2683032398143332</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1579090746494138</v>
       </c>
       <c r="M5">
-        <v>0.8445994185148038</v>
+        <v>0.05796522327380949</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.8461075454098079</v>
       </c>
       <c r="P5">
-        <v>0.7844579574157438</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.413759216581028</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.7652028929816641</v>
+      </c>
+      <c r="S5">
+        <v>1.334121784472927</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.713426617235001</v>
+        <v>0.6910426758828976</v>
       </c>
       <c r="C6">
-        <v>0.1737025335381333</v>
+        <v>0.1831932930389399</v>
       </c>
       <c r="D6">
-        <v>0.05141495005833008</v>
+        <v>0.05247068287166456</v>
       </c>
       <c r="E6">
-        <v>0.9810417198865196</v>
+        <v>0.9837344107245087</v>
       </c>
       <c r="F6">
-        <v>0.455722755487038</v>
+        <v>0.4335426658001822</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.002154418391786761</v>
+        <v>0.002341805045408263</v>
       </c>
       <c r="I6">
-        <v>0.0006151499661761761</v>
+        <v>0.0007385417529128802</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142324</v>
       </c>
       <c r="K6">
-        <v>0.2911005534774702</v>
+        <v>0.2678719911038492</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1578760773571055</v>
       </c>
       <c r="M6">
-        <v>0.8386293341369537</v>
+        <v>0.05778515819841168</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.8401551594104149</v>
       </c>
       <c r="P6">
-        <v>0.7855782749721785</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.409392731413263</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.7662670478447815</v>
+      </c>
+      <c r="S6">
+        <v>1.330329229283677</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.748526743697397</v>
+        <v>0.7236219680350473</v>
       </c>
       <c r="C7">
-        <v>0.1814494500713266</v>
+        <v>0.1925726399906864</v>
       </c>
       <c r="D7">
-        <v>0.05332494905844243</v>
+        <v>0.05458453876189395</v>
       </c>
       <c r="E7">
-        <v>1.029361546820923</v>
+        <v>1.031995725818192</v>
       </c>
       <c r="F7">
-        <v>0.464266322393236</v>
+        <v>0.4409571374145926</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.00259415542649899</v>
+        <v>0.002790152606241714</v>
       </c>
       <c r="I7">
-        <v>0.0006495554148600036</v>
+        <v>0.0008321528728636451</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.0759357156874878</v>
       </c>
       <c r="K7">
-        <v>0.2915940815044848</v>
+        <v>0.2677025733114959</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1564988284407498</v>
       </c>
       <c r="M7">
-        <v>0.8796938337958693</v>
+        <v>0.0582868877865117</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.8810962046819668</v>
       </c>
       <c r="P7">
-        <v>0.7774924401933934</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.425651430849797</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.7589086275982968</v>
+      </c>
+      <c r="S7">
+        <v>1.343119764886922</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9048360971923444</v>
+        <v>0.8683957457032818</v>
       </c>
       <c r="C8">
-        <v>0.2147288890322159</v>
+        <v>0.2332373925134874</v>
       </c>
       <c r="D8">
-        <v>0.06158275799973012</v>
+        <v>0.06376433690494565</v>
       </c>
       <c r="E8">
-        <v>1.242890342949877</v>
+        <v>1.24520949681046</v>
       </c>
       <c r="F8">
-        <v>0.5041261070968517</v>
+        <v>0.4755853892197379</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.004922973049911405</v>
+        <v>0.005137479962808666</v>
       </c>
       <c r="I8">
-        <v>0.0009065762135929134</v>
+        <v>0.001260849711211876</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284014</v>
       </c>
       <c r="K8">
-        <v>0.295164280506711</v>
+        <v>0.2681265061809555</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1510568154149396</v>
       </c>
       <c r="M8">
-        <v>1.060805175940999</v>
+        <v>0.061872961297194</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.061583962448765</v>
       </c>
       <c r="P8">
-        <v>0.7430905595902679</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.504064223862059</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.727690190344104</v>
+      </c>
+      <c r="S8">
+        <v>1.405409331384192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.212885697736226</v>
+        <v>1.152330916957823</v>
       </c>
       <c r="C9">
-        <v>0.2791616937363983</v>
+        <v>0.3129577134390331</v>
       </c>
       <c r="D9">
-        <v>0.07744962377422127</v>
+        <v>0.08152799500205532</v>
       </c>
       <c r="E9">
-        <v>1.663726205513129</v>
+        <v>1.665169569962217</v>
       </c>
       <c r="F9">
-        <v>0.5882889732057635</v>
+        <v>0.5485957699705537</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.01110551183288144</v>
+        <v>0.0112754489616409</v>
       </c>
       <c r="I9">
-        <v>0.002407618088422936</v>
+        <v>0.002832245505427267</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>0.3055448301335737</v>
+        <v>0.2716043696420947</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1417025742320277</v>
       </c>
       <c r="M9">
-        <v>1.415952825199497</v>
+        <v>0.0736032797754298</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.415161024702002</v>
       </c>
       <c r="P9">
-        <v>0.6801896595342232</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.67569961500206</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.6710624022194587</v>
+      </c>
+      <c r="S9">
+        <v>1.542547739345338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.431750531438638</v>
+        <v>1.353553153406182</v>
       </c>
       <c r="C10">
-        <v>0.3255026055681753</v>
+        <v>0.3704939454037515</v>
       </c>
       <c r="D10">
-        <v>0.09023007927338256</v>
+        <v>0.09575624164119034</v>
       </c>
       <c r="E10">
-        <v>1.87525416021694</v>
+        <v>1.875856488447624</v>
       </c>
       <c r="F10">
-        <v>0.6445056557806055</v>
+        <v>0.59686083980273</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.01634419500031647</v>
+        <v>0.01642374946852243</v>
       </c>
       <c r="I10">
-        <v>0.004514805216690121</v>
+        <v>0.004874901645074203</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>0.3102005249615871</v>
+        <v>0.2715390866295735</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1339965177481979</v>
       </c>
       <c r="M10">
-        <v>1.66902808708366</v>
+        <v>0.08347264799693477</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.666870551542473</v>
       </c>
       <c r="P10">
-        <v>0.6377369466320069</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.782557670885808</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.6340400911623227</v>
+      </c>
+      <c r="S10">
+        <v>1.625246408820743</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.484823145189068</v>
+        <v>1.406857195149428</v>
       </c>
       <c r="C11">
-        <v>0.324042381629539</v>
+        <v>0.3679234831679139</v>
       </c>
       <c r="D11">
-        <v>0.1058053958953593</v>
+        <v>0.1118742034380631</v>
       </c>
       <c r="E11">
-        <v>1.201070524859247</v>
+        <v>1.201399990380679</v>
       </c>
       <c r="F11">
-        <v>0.6034476433573062</v>
+        <v>0.5586478247368518</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.03235694163463165</v>
+        <v>0.03240762232038108</v>
       </c>
       <c r="I11">
-        <v>0.005494243982161251</v>
+        <v>0.005922217959905218</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>0.2815168229216063</v>
+        <v>0.2465646473046732</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.121997932157246</v>
       </c>
       <c r="M11">
-        <v>1.712679496723098</v>
+        <v>0.07781769342768996</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.710379513351796</v>
       </c>
       <c r="P11">
-        <v>0.6296501650415998</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.619307724042642</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.6334763296971566</v>
+      </c>
+      <c r="S11">
+        <v>1.474532780789332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.486896945976753</v>
+        <v>1.412865008133991</v>
       </c>
       <c r="C12">
-        <v>0.3113054321665629</v>
+        <v>0.3517256137378695</v>
       </c>
       <c r="D12">
-        <v>0.1166120020663186</v>
+        <v>0.1227696617167169</v>
       </c>
       <c r="E12">
-        <v>0.7177465496080799</v>
+        <v>0.7180153716132338</v>
       </c>
       <c r="F12">
-        <v>0.5596539623512911</v>
+        <v>0.5187705224350765</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0689165069846851</v>
+        <v>0.06896509015132324</v>
       </c>
       <c r="I12">
-        <v>0.005499514388469962</v>
+        <v>0.005928001862009147</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>0.2588291128687601</v>
+        <v>0.2277072519380923</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1145443292618573</v>
       </c>
       <c r="M12">
-        <v>1.695957571005891</v>
+        <v>0.07146499293723707</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.69382959024054</v>
       </c>
       <c r="P12">
-        <v>0.6356083461417477</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.470541056436559</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0.6439060121326357</v>
+      </c>
+      <c r="S12">
+        <v>1.340609551872319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.446169868044251</v>
+        <v>1.379250968018567</v>
       </c>
       <c r="C13">
-        <v>0.2913931966694037</v>
+        <v>0.3266084495401458</v>
       </c>
       <c r="D13">
-        <v>0.1244988897677075</v>
+        <v>0.1303990415243561</v>
       </c>
       <c r="E13">
-        <v>0.3532936327332905</v>
+        <v>0.3535762662902044</v>
       </c>
       <c r="F13">
-        <v>0.5091273274015293</v>
+        <v>0.4732311940795029</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1226714396411097</v>
+        <v>0.122733204289176</v>
       </c>
       <c r="I13">
-        <v>0.005077205539353535</v>
+        <v>0.005529034060042015</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.1026584643119293</v>
       </c>
       <c r="K13">
-        <v>0.2377196950092966</v>
+        <v>0.2108317255515999</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1091441061946217</v>
       </c>
       <c r="M13">
-        <v>1.631851014598737</v>
+        <v>0.06382787907525511</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.630143835875259</v>
       </c>
       <c r="P13">
-        <v>0.6518357299812934</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.31740033748423</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0.6626097366826471</v>
+      </c>
+      <c r="S13">
+        <v>1.205008168946875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.39778868954852</v>
+        <v>1.337243986557468</v>
       </c>
       <c r="C14">
-        <v>0.2747992823102834</v>
+        <v>0.3056978659542438</v>
       </c>
       <c r="D14">
-        <v>0.1287608021394107</v>
+        <v>0.1343168186024855</v>
       </c>
       <c r="E14">
-        <v>0.1701623084437358</v>
+        <v>0.1704556537751927</v>
       </c>
       <c r="F14">
-        <v>0.4707750159479929</v>
+        <v>0.4387838918647589</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.170753995464338</v>
+        <v>0.1708293835309718</v>
       </c>
       <c r="I14">
-        <v>0.004687693525831094</v>
+        <v>0.005177058521156574</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.2236201471301662</v>
+        <v>0.1998198405412701</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1061057797037428</v>
       </c>
       <c r="M14">
-        <v>1.565914042508297</v>
+        <v>0.05802881669770343</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.564599518118911</v>
       </c>
       <c r="P14">
-        <v>0.6681418055002055</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.208666019643204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0.679653151580851</v>
+      </c>
+      <c r="S14">
+        <v>1.109486604876665</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.376051655680669</v>
+        <v>1.317728497110238</v>
       </c>
       <c r="C15">
-        <v>0.2696860186199075</v>
+        <v>0.2992105347411069</v>
       </c>
       <c r="D15">
-        <v>0.1291588171955169</v>
+        <v>0.1345647138173121</v>
       </c>
       <c r="E15">
-        <v>0.1345409729894769</v>
+        <v>0.1348448784892113</v>
       </c>
       <c r="F15">
-        <v>0.4595427901152362</v>
+        <v>0.428740575443463</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1828475966195384</v>
+        <v>0.182928723814868</v>
       </c>
       <c r="I15">
-        <v>0.004607887249423293</v>
+        <v>0.005132206469420808</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657191606</v>
       </c>
       <c r="K15">
-        <v>0.2201271203435056</v>
+        <v>0.1971965623667238</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1055866379287487</v>
       </c>
       <c r="M15">
-        <v>1.539863931270503</v>
+        <v>0.05628882531780732</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.538695898195783</v>
       </c>
       <c r="P15">
-        <v>0.6739267797912518</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.179492820166885</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0.6852786779651794</v>
+      </c>
+      <c r="S15">
+        <v>1.084168933865854</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.289815238479065</v>
+        <v>1.237517599232319</v>
       </c>
       <c r="C16">
-        <v>0.2551592455408809</v>
+        <v>0.2812387585304208</v>
       </c>
       <c r="D16">
-        <v>0.1218171473013143</v>
+        <v>0.1266194561274716</v>
       </c>
       <c r="E16">
-        <v>0.1316413526163167</v>
+        <v>0.1320669500109943</v>
       </c>
       <c r="F16">
-        <v>0.4454599288065282</v>
+        <v>0.4168301299026922</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1685829381247999</v>
+        <v>0.1686865611282258</v>
       </c>
       <c r="I16">
-        <v>0.003907712304263455</v>
+        <v>0.004489996513425076</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926776106</v>
       </c>
       <c r="K16">
-        <v>0.221867303398227</v>
+        <v>0.1998852837930158</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1085311309353134</v>
       </c>
       <c r="M16">
-        <v>1.44571077939122</v>
+        <v>0.05402997325121994</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.44502955802983</v>
       </c>
       <c r="P16">
-        <v>0.6865349820302455</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.16386771545568</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.694657556138992</v>
+      </c>
+      <c r="S16">
+        <v>1.074372438014279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.249211575172524</v>
+        <v>1.198167138213421</v>
       </c>
       <c r="C17">
-        <v>0.2527750584287816</v>
+        <v>0.2784539236934478</v>
       </c>
       <c r="D17">
-        <v>0.1139491406815978</v>
+        <v>0.1184851136943053</v>
       </c>
       <c r="E17">
-        <v>0.2131853944011297</v>
+        <v>0.2137416817631745</v>
       </c>
       <c r="F17">
-        <v>0.4548722353551113</v>
+        <v>0.4258988733286344</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1302356153349962</v>
+        <v>0.1303499738358482</v>
       </c>
       <c r="I17">
-        <v>0.003603827347277822</v>
+        <v>0.00421180003582311</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234339</v>
       </c>
       <c r="K17">
-        <v>0.2305922305300179</v>
+        <v>0.2077722941093114</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1126432646894138</v>
       </c>
       <c r="M17">
-        <v>1.408337167327062</v>
+        <v>0.05521640248579018</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.407823518859459</v>
       </c>
       <c r="P17">
-        <v>0.6877301428611702</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.208925052666444</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0.6931382766579119</v>
+      </c>
+      <c r="S17">
+        <v>1.117172829541886</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.245118937810815</v>
+        <v>1.191378823471723</v>
       </c>
       <c r="C18">
-        <v>0.2597788425863996</v>
+        <v>0.2875774230526531</v>
       </c>
       <c r="D18">
-        <v>0.1047996846682153</v>
+        <v>0.1092990945775796</v>
       </c>
       <c r="E18">
-        <v>0.4392454816590288</v>
+        <v>0.4399721173250839</v>
       </c>
       <c r="F18">
-        <v>0.4869754618032474</v>
+        <v>0.4553775402771407</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07790618029886076</v>
+        <v>0.07802805864113793</v>
       </c>
       <c r="I18">
-        <v>0.003317217974135644</v>
+        <v>0.003883097870136076</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146320727</v>
       </c>
       <c r="K18">
-        <v>0.2474850462255418</v>
+        <v>0.2220590694134472</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1187311069721027</v>
       </c>
       <c r="M18">
-        <v>1.415631464646111</v>
+        <v>0.05966077698828443</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.415039262701669</v>
       </c>
       <c r="P18">
-        <v>0.6805183084719069</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.317025276825717</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.6830034021811215</v>
+      </c>
+      <c r="S18">
+        <v>1.215403756112863</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.266372108171026</v>
+        <v>1.207056088844467</v>
       </c>
       <c r="C19">
-        <v>0.2767791111514981</v>
+        <v>0.3088953949961422</v>
       </c>
       <c r="D19">
-        <v>0.0959786875409776</v>
+        <v>0.1006023372130471</v>
       </c>
       <c r="E19">
-        <v>0.8618076404199115</v>
+        <v>0.8627047568808308</v>
       </c>
       <c r="F19">
-        <v>0.5338533123704394</v>
+        <v>0.497917263844073</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.03455613894077914</v>
+        <v>0.03468414328047231</v>
       </c>
       <c r="I19">
-        <v>0.00358713552317802</v>
+        <v>0.004170026586706399</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.07592634768438788</v>
       </c>
       <c r="K19">
-        <v>0.2689860909804374</v>
+        <v>0.2396943456049918</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1256731301171961</v>
       </c>
       <c r="M19">
-        <v>1.458630705845195</v>
+        <v>0.0660866686663617</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.457756616455441</v>
       </c>
       <c r="P19">
-        <v>0.6703122761858964</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.466322567281082</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.6697208320388839</v>
+      </c>
+      <c r="S19">
+        <v>1.349073627483335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.366683300415389</v>
+        <v>1.293476181019031</v>
       </c>
       <c r="C20">
-        <v>0.3173699774441445</v>
+        <v>0.3597174433854775</v>
       </c>
       <c r="D20">
-        <v>0.08744034465048856</v>
+        <v>0.09260402162882286</v>
       </c>
       <c r="E20">
-        <v>1.815302130274432</v>
+        <v>1.816140903259111</v>
       </c>
       <c r="F20">
-        <v>0.6250114341986404</v>
+        <v>0.5797080111384147</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.01482939547195938</v>
+        <v>0.01493725995522688</v>
       </c>
       <c r="I20">
-        <v>0.004589165692179265</v>
+        <v>0.005134080332279467</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835525</v>
       </c>
       <c r="K20">
-        <v>0.305478649461584</v>
+        <v>0.2684405851437965</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1348548892421668</v>
       </c>
       <c r="M20">
-        <v>1.601820342284498</v>
+        <v>0.0795174886827219</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.60005075347604</v>
       </c>
       <c r="P20">
-        <v>0.6487843687756314</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.739189996715481</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.6441540706183275</v>
+      </c>
+      <c r="S20">
+        <v>1.589216412932785</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.543256572768541</v>
+        <v>1.454697762484955</v>
       </c>
       <c r="C21">
-        <v>0.3570330822935546</v>
+        <v>0.4093007803410273</v>
       </c>
       <c r="D21">
-        <v>0.0955509846331779</v>
+        <v>0.101863536768974</v>
       </c>
       <c r="E21">
-        <v>2.133177298239517</v>
+        <v>2.133275134105645</v>
       </c>
       <c r="F21">
-        <v>0.6817535123600322</v>
+        <v>0.6289791063575478</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02007647646698008</v>
+        <v>0.02008982133196047</v>
       </c>
       <c r="I21">
-        <v>0.006495762282124673</v>
+        <v>0.006900952522434167</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752089</v>
       </c>
       <c r="K21">
-        <v>0.3155283177297648</v>
+        <v>0.2736564603654195</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1309797692514429</v>
       </c>
       <c r="M21">
-        <v>1.809020486175655</v>
+        <v>0.08986088250097168</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.806000374040565</v>
       </c>
       <c r="P21">
-        <v>0.6161005321358139</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.864423493058297</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.6147225865323485</v>
+      </c>
+      <c r="S21">
+        <v>1.69101837752558</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.6591648834019</v>
+        <v>1.560739143125147</v>
       </c>
       <c r="C22">
-        <v>0.3800132168933601</v>
+        <v>0.4383548914407527</v>
       </c>
       <c r="D22">
-        <v>0.1011677671210407</v>
+        <v>0.1082261362172403</v>
       </c>
       <c r="E22">
-        <v>2.290940188614243</v>
+        <v>2.290495993892435</v>
       </c>
       <c r="F22">
-        <v>0.7173904709215009</v>
+        <v>0.6599092514383926</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02354412679780937</v>
+        <v>0.0234813746192466</v>
       </c>
       <c r="I22">
-        <v>0.007654849637893868</v>
+        <v>0.007869326226954243</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079828149</v>
       </c>
       <c r="K22">
-        <v>0.3219334591415262</v>
+        <v>0.2770095919002031</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1283802826747298</v>
       </c>
       <c r="M22">
-        <v>1.940711006522235</v>
+        <v>0.09707382045077395</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.936829255332015</v>
       </c>
       <c r="P22">
-        <v>0.5956901653976949</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.941423629601502</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.5965355898891609</v>
+      </c>
+      <c r="S22">
+        <v>1.75336491904207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.600172876537869</v>
+        <v>1.506926523800956</v>
       </c>
       <c r="C23">
-        <v>0.3660977829533181</v>
+        <v>0.4210361855978419</v>
       </c>
       <c r="D23">
-        <v>0.09796910283940008</v>
+        <v>0.1046189850410428</v>
       </c>
       <c r="E23">
-        <v>2.206718880803265</v>
+        <v>2.206567213770725</v>
       </c>
       <c r="F23">
-        <v>0.699914023357735</v>
+        <v>0.6448791449983773</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02167355122453118</v>
+        <v>0.0216525081206933</v>
       </c>
       <c r="I23">
-        <v>0.006749011393916149</v>
+        <v>0.007006439148288912</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787806356</v>
       </c>
       <c r="K23">
-        <v>0.3197345790996344</v>
+        <v>0.2763116678755893</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1301340889774671</v>
       </c>
       <c r="M23">
-        <v>1.870552010347296</v>
+        <v>0.09364605550063132</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.867134165051738</v>
       </c>
       <c r="P23">
-        <v>0.6064673177620143</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.905388024998018</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.6059274077579424</v>
+      </c>
+      <c r="S23">
+        <v>1.724866717866888</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.371968167437927</v>
+        <v>1.298112496329708</v>
       </c>
       <c r="C24">
-        <v>0.3165589362348271</v>
+        <v>0.359124241750834</v>
       </c>
       <c r="D24">
-        <v>0.08618517810005244</v>
+        <v>0.09132776887235394</v>
       </c>
       <c r="E24">
-        <v>1.889253417765573</v>
+        <v>1.890098150119812</v>
       </c>
       <c r="F24">
-        <v>0.6325413871152108</v>
+        <v>0.5866597424567317</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.01516164860121516</v>
+        <v>0.01526944793134366</v>
       </c>
       <c r="I24">
-        <v>0.004168282299267467</v>
+        <v>0.004613105392598627</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.076368825553498</v>
       </c>
       <c r="K24">
-        <v>0.3099754405747035</v>
+        <v>0.2722944108759009</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1363690142839715</v>
       </c>
       <c r="M24">
-        <v>1.605132036398714</v>
+        <v>0.08091760639468859</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.603330419022768</v>
       </c>
       <c r="P24">
-        <v>0.6486593254132806</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.764382602626881</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.6432418829536921</v>
+      </c>
+      <c r="S24">
+        <v>1.612191846009779</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.125503601741798</v>
+        <v>1.071763921020391</v>
       </c>
       <c r="C25">
-        <v>0.2639739183665881</v>
+        <v>0.2937198764885238</v>
       </c>
       <c r="D25">
-        <v>0.07345861304570889</v>
+        <v>0.07702519998385071</v>
       </c>
       <c r="E25">
-        <v>1.549470497323114</v>
+        <v>1.551185647764768</v>
       </c>
       <c r="F25">
-        <v>0.5626324085448644</v>
+        <v>0.5261480521649204</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.009229829969554113</v>
+        <v>0.0094217373267792</v>
       </c>
       <c r="I25">
-        <v>0.002226179075654144</v>
+        <v>0.002737428395375829</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>0.3006446368975588</v>
+        <v>0.2688140675061348</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1434700801883011</v>
       </c>
       <c r="M25">
-        <v>1.319622338362564</v>
+        <v>0.0693613805087665</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.31930178563411</v>
       </c>
       <c r="P25">
-        <v>0.6966753977092903</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.62004577271108</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.6860824499801748</v>
+      </c>
+      <c r="S25">
+        <v>1.496926686666171</v>
       </c>
     </row>
   </sheetData>
